--- a/teaching/traditional_assets/database/data/malta/malta_software_system_application.xlsx
+++ b/teaching/traditional_assets/database/data/malta/malta_software_system_application.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="mtse_lqs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.111</v>
+        <v>0.0406</v>
       </c>
       <c r="G2">
-        <v>0.3720000000000001</v>
+        <v>-0.1613740091280327</v>
       </c>
       <c r="H2">
-        <v>0.3468085106382979</v>
+        <v>-0.2004804227720394</v>
       </c>
       <c r="I2">
-        <v>-0.01219508455421518</v>
+        <v>-0.1851549363439827</v>
       </c>
       <c r="J2">
-        <v>-0.01219508455421518</v>
+        <v>-0.1851549363439827</v>
       </c>
       <c r="K2">
-        <v>-0.62</v>
+        <v>-27.111</v>
       </c>
       <c r="L2">
-        <v>-0.02638297872340425</v>
+        <v>-0.6512370886380016</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.28</v>
+        <v>6.220000000000001</v>
       </c>
       <c r="V2">
-        <v>0.004964075767472239</v>
+        <v>0.01151297523414652</v>
       </c>
       <c r="W2">
-        <v>-0.02755555555555556</v>
+        <v>-0.2099056603773585</v>
       </c>
       <c r="X2">
-        <v>0.09495771225506261</v>
+        <v>0.07887235268493802</v>
       </c>
       <c r="Y2">
-        <v>-0.1225132678106182</v>
+        <v>-0.2887780130622965</v>
       </c>
       <c r="Z2">
-        <v>1.151795781938993</v>
+        <v>1.514589245434039</v>
       </c>
       <c r="AA2">
-        <v>-0.01404624694993442</v>
+        <v>-0.2517094017094017</v>
       </c>
       <c r="AB2">
-        <v>0.09417768518336291</v>
+        <v>0.06689776638741515</v>
       </c>
       <c r="AC2">
-        <v>-0.1082239321332973</v>
+        <v>-0.3194700446691792</v>
       </c>
       <c r="AD2">
-        <v>4.48</v>
+        <v>33.48</v>
       </c>
       <c r="AE2">
-        <v>1.042922435120284</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.522922435120284</v>
+        <v>33.48</v>
       </c>
       <c r="AG2">
-        <v>3.242922435120284</v>
+        <v>27.26000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.01188177727162578</v>
+        <v>0.05835395823892356</v>
       </c>
       <c r="AI2">
-        <v>0.2216001132891874</v>
+        <v>0.9634532374100718</v>
       </c>
       <c r="AJ2">
-        <v>0.007011073519507069</v>
+        <v>0.04803354947843249</v>
       </c>
       <c r="AK2">
-        <v>0.1432201361998376</v>
+        <v>0.9554854539081669</v>
       </c>
       <c r="AL2">
-        <v>0.113</v>
+        <v>2.192</v>
       </c>
       <c r="AM2">
-        <v>0.113</v>
+        <v>2.173</v>
       </c>
       <c r="AN2">
-        <v>8.160291438979964</v>
+        <v>-4.926427310182461</v>
       </c>
       <c r="AO2">
-        <v>-4.106194690265487</v>
+        <v>-3.516423357664234</v>
       </c>
       <c r="AP2">
-        <v>5.906962541202703</v>
+        <v>-4.011183048852267</v>
       </c>
       <c r="AQ2">
-        <v>-4.106194690265487</v>
+        <v>-3.547169811320755</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RS2 Software p.l.c. (MTSE:RS2)</t>
+          <t>Loqus Holdings p.l.c. (MTSE:LQS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.111</v>
+        <v>0.0542</v>
       </c>
       <c r="G3">
-        <v>0.3720000000000001</v>
+        <v>0.1820554649265905</v>
       </c>
       <c r="H3">
-        <v>0.3468085106382979</v>
+        <v>0.02512234910277325</v>
       </c>
       <c r="I3">
-        <v>-0.01219508455421518</v>
+        <v>0.0166394779771615</v>
       </c>
       <c r="J3">
-        <v>-0.01219508455421518</v>
+        <v>0.0166394779771615</v>
       </c>
       <c r="K3">
-        <v>-0.62</v>
+        <v>-0.161</v>
       </c>
       <c r="L3">
-        <v>-0.02638297872340425</v>
+        <v>-0.02626427406199021</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +763,9033 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.28</v>
+        <v>1.32</v>
       </c>
       <c r="V3">
-        <v>0.004964075767472239</v>
+        <v>0.3419689119170985</v>
       </c>
       <c r="W3">
-        <v>-0.02755555555555556</v>
+        <v>-0.0516025641025641</v>
       </c>
       <c r="X3">
-        <v>0.09495771225506261</v>
+        <v>0.08573980835496053</v>
       </c>
       <c r="Y3">
-        <v>-0.1225132678106182</v>
+        <v>-0.1373423724575246</v>
       </c>
       <c r="Z3">
-        <v>1.151795781938993</v>
+        <v>-11.69847328244275</v>
       </c>
       <c r="AA3">
-        <v>-0.01404624694993442</v>
+        <v>-0.1946564885496183</v>
       </c>
       <c r="AB3">
-        <v>0.09417768518336291</v>
+        <v>0.06636760303182411</v>
       </c>
       <c r="AC3">
-        <v>-0.1082239321332973</v>
+        <v>-0.2610240915814424</v>
       </c>
       <c r="AD3">
-        <v>4.48</v>
+        <v>1.78</v>
       </c>
       <c r="AE3">
-        <v>1.042922435120284</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.522922435120284</v>
+        <v>1.78</v>
       </c>
       <c r="AG3">
-        <v>3.242922435120284</v>
+        <v>0.46</v>
       </c>
       <c r="AH3">
-        <v>0.01188177727162578</v>
+        <v>0.3156028368794326</v>
       </c>
       <c r="AI3">
-        <v>0.2216001132891874</v>
+        <v>0.3827956989247311</v>
       </c>
       <c r="AJ3">
-        <v>0.007011073519507069</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="AK3">
-        <v>0.1432201361998376</v>
+        <v>0.1381381381381381</v>
       </c>
       <c r="AL3">
-        <v>0.113</v>
+        <v>0.308</v>
       </c>
       <c r="AM3">
-        <v>0.113</v>
+        <v>0.308</v>
       </c>
       <c r="AN3">
-        <v>8.160291438979964</v>
+        <v>11.55844155844156</v>
       </c>
       <c r="AO3">
-        <v>-4.106194690265487</v>
+        <v>0.3311688311688312</v>
       </c>
       <c r="AP3">
-        <v>5.906962541202703</v>
+        <v>2.987012987012987</v>
       </c>
       <c r="AQ3">
-        <v>-4.106194690265487</v>
+        <v>0.3311688311688312</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RS2 Software p.l.c. (MTSE:RS2)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Software (System &amp; Application)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.027</v>
+      </c>
+      <c r="G4">
+        <v>-0.03540983606557377</v>
+      </c>
+      <c r="H4">
+        <v>-0.0627049180327869</v>
+      </c>
+      <c r="I4">
+        <v>-0.2413934426229508</v>
+      </c>
+      <c r="J4">
+        <v>-0.2413934426229508</v>
+      </c>
+      <c r="K4">
+        <v>-4.45</v>
+      </c>
+      <c r="L4">
+        <v>-0.1823770491803279</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>3.43</v>
+      </c>
+      <c r="V4">
+        <v>0.007265409870790087</v>
+      </c>
+      <c r="W4">
+        <v>-0.2099056603773585</v>
+      </c>
+      <c r="X4">
+        <v>0.06921281037005678</v>
+      </c>
+      <c r="Y4">
+        <v>-0.2791184707474152</v>
+      </c>
+      <c r="Z4">
+        <v>1.042735042735043</v>
+      </c>
+      <c r="AA4">
+        <v>-0.2517094017094017</v>
+      </c>
+      <c r="AB4">
+        <v>0.06776064295977749</v>
+      </c>
+      <c r="AC4">
+        <v>-0.3194700446691792</v>
+      </c>
+      <c r="AD4">
+        <v>13.6</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>13.6</v>
+      </c>
+      <c r="AG4">
+        <v>10.17</v>
+      </c>
+      <c r="AH4">
+        <v>0.02800082355363393</v>
+      </c>
+      <c r="AI4">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AJ4">
+        <v>0.02108777240964605</v>
+      </c>
+      <c r="AK4">
+        <v>0.460806524694155</v>
+      </c>
+      <c r="AL4">
+        <v>0.224</v>
+      </c>
+      <c r="AM4">
+        <v>0.205</v>
+      </c>
+      <c r="AN4">
+        <v>-2.625482625482626</v>
+      </c>
+      <c r="AO4">
+        <v>-26.29464285714285</v>
+      </c>
+      <c r="AP4">
+        <v>-1.963320463320464</v>
+      </c>
+      <c r="AQ4">
+        <v>-28.73170731707317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>River iGaming p.l.c. (OB:RIVER)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Software (System &amp; Application)</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>-0.627927927927928</v>
+      </c>
+      <c r="H5">
+        <v>-0.627927927927928</v>
+      </c>
+      <c r="I5">
+        <v>-0.172972972972973</v>
+      </c>
+      <c r="J5">
+        <v>-0.172972972972973</v>
+      </c>
+      <c r="K5">
+        <v>-22.5</v>
+      </c>
+      <c r="L5">
+        <v>-2.027027027027027</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1.47</v>
+      </c>
+      <c r="V5">
+        <v>0.02286158631415241</v>
+      </c>
+      <c r="W5">
+        <v>-2.616279069767442</v>
+      </c>
+      <c r="X5">
+        <v>0.07887235268493802</v>
+      </c>
+      <c r="Y5">
+        <v>-2.69515142245238</v>
+      </c>
+      <c r="Z5">
+        <v>2.407809110629067</v>
+      </c>
+      <c r="AA5">
+        <v>-0.4164859002169196</v>
+      </c>
+      <c r="AB5">
+        <v>0.06689776638741515</v>
+      </c>
+      <c r="AC5">
+        <v>-0.4833836666043347</v>
+      </c>
+      <c r="AD5">
+        <v>18.1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>18.1</v>
+      </c>
+      <c r="AG5">
+        <v>16.63</v>
+      </c>
+      <c r="AH5">
+        <v>0.2196601941747573</v>
+      </c>
+      <c r="AI5">
+        <v>3.934782608695651</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2054862226615594</v>
+      </c>
+      <c r="AK5">
+        <v>5.313099041533543</v>
+      </c>
+      <c r="AL5">
+        <v>1.66</v>
+      </c>
+      <c r="AM5">
+        <v>1.66</v>
+      </c>
+      <c r="AN5">
+        <v>-10.22598870056497</v>
+      </c>
+      <c r="AO5">
+        <v>-1.156626506024096</v>
+      </c>
+      <c r="AP5">
+        <v>-9.395480225988702</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.156626506024096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Loqus Holdings p.l.c. (MTSE:LQS)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MTSE:LQS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Software (System &amp; Application)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.315602836879433</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>3.86</v>
+      </c>
+      <c r="H2">
+        <v>3.07078928988645</v>
+      </c>
+      <c r="I2">
+        <v>4.32</v>
+      </c>
+      <c r="J2">
+        <v>1.80718928988645</v>
+      </c>
+      <c r="K2">
+        <v>1.78</v>
+      </c>
+      <c r="L2">
+        <v>0.0564</v>
+      </c>
+      <c r="M2">
+        <v>0.0663676030318241</v>
+      </c>
+      <c r="N2">
+        <v>0.145717389410807</v>
+      </c>
+      <c r="O2">
+        <v>0.0243582139603035</v>
+      </c>
+      <c r="P2">
+        <v>5.93015390070922</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.08573980835496051</v>
+      </c>
+      <c r="T2">
+        <v>0.0872887377815304</v>
+      </c>
+      <c r="U2">
+        <v>1.37945520789666</v>
+      </c>
+      <c r="V2">
+        <v>1.40740764276181</v>
+      </c>
+      <c r="W2">
+        <v>-89.37637297937974</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>3.86</v>
+      </c>
+      <c r="AB2">
+        <v>0.05541304126250898</v>
+      </c>
+      <c r="AC2">
+        <v>0.0374741753235439</v>
+      </c>
+      <c r="AD2">
+        <v>0.35</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.154</v>
+      </c>
+      <c r="AH2">
+        <v>1.08</v>
+      </c>
+      <c r="AI2">
+        <v>0.8249999999999997</v>
+      </c>
+      <c r="AJ2">
+        <v>1.78</v>
+      </c>
+      <c r="AK2">
+        <v>1.78</v>
+      </c>
+      <c r="AL2">
+        <v>0.308</v>
+      </c>
+      <c r="AM2">
+        <v>1.78</v>
+      </c>
+      <c r="AN2">
+        <v>1.32</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-1.78</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.32</v>
+      </c>
+      <c r="H2">
+        <v>3.86</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.154</v>
+      </c>
+      <c r="K2">
+        <v>1.08</v>
+      </c>
+      <c r="L2">
+        <v>-0.926</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-0.926</v>
+      </c>
+      <c r="O2">
+        <v>-0.3241</v>
+      </c>
+      <c r="P2">
+        <v>-0.6019000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.4781</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1457173894108073</v>
+      </c>
+      <c r="C3">
+        <v>3.07078928988645</v>
+      </c>
+      <c r="D3">
+        <v>1.807189289886449</v>
+      </c>
+      <c r="E3">
+        <v>-1.7236</v>
+      </c>
+      <c r="F3">
+        <v>0.0564</v>
+      </c>
+      <c r="G3">
+        <v>1.32</v>
+      </c>
+      <c r="H3">
+        <v>3.86</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.154</v>
+      </c>
+      <c r="K3">
+        <v>1.08</v>
+      </c>
+      <c r="L3">
+        <v>-0.926</v>
+      </c>
+      <c r="M3">
+        <v>0.01036068</v>
+      </c>
+      <c r="N3">
+        <v>-0.9363606800000001</v>
+      </c>
+      <c r="O3">
+        <v>-0.327726238</v>
+      </c>
+      <c r="P3">
+        <v>-0.6086344420000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.471365558</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.0872887377815304</v>
+      </c>
+      <c r="T3">
+        <v>1.407407642761805</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-31.28173054278291</v>
+      </c>
+      <c r="W3">
+        <v>5.930153900709221</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-89.37637297937974</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1474613894108073</v>
+      </c>
+      <c r="C4">
+        <v>2.991577286221731</v>
+      </c>
+      <c r="D4">
+        <v>1.784377286221731</v>
+      </c>
+      <c r="E4">
+        <v>-1.6672</v>
+      </c>
+      <c r="F4">
+        <v>0.1128</v>
+      </c>
+      <c r="G4">
+        <v>1.32</v>
+      </c>
+      <c r="H4">
+        <v>3.86</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.154</v>
+      </c>
+      <c r="K4">
+        <v>1.08</v>
+      </c>
+      <c r="L4">
+        <v>-0.926</v>
+      </c>
+      <c r="M4">
+        <v>0.02072136</v>
+      </c>
+      <c r="N4">
+        <v>-0.9467213600000001</v>
+      </c>
+      <c r="O4">
+        <v>-0.331352476</v>
+      </c>
+      <c r="P4">
+        <v>-0.615368884</v>
+      </c>
+      <c r="Q4">
+        <v>0.4646311160000001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.08808454122828072</v>
+      </c>
+      <c r="T4">
+        <v>1.421768945238966</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-15.64086527139145</v>
+      </c>
+      <c r="W4">
+        <v>3.05692695035461</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-44.68818648968987</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1492053894108073</v>
+      </c>
+      <c r="C5">
+        <v>2.912934011675437</v>
+      </c>
+      <c r="D5">
+        <v>1.762134011675437</v>
+      </c>
+      <c r="E5">
+        <v>-1.6108</v>
+      </c>
+      <c r="F5">
+        <v>0.1692</v>
+      </c>
+      <c r="G5">
+        <v>1.32</v>
+      </c>
+      <c r="H5">
+        <v>3.86</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.154</v>
+      </c>
+      <c r="K5">
+        <v>1.08</v>
+      </c>
+      <c r="L5">
+        <v>-0.926</v>
+      </c>
+      <c r="M5">
+        <v>0.03108204</v>
+      </c>
+      <c r="N5">
+        <v>-0.9570820400000001</v>
+      </c>
+      <c r="O5">
+        <v>-0.334978714</v>
+      </c>
+      <c r="P5">
+        <v>-0.6221033260000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.457896674</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.08889675299352072</v>
+      </c>
+      <c r="T5">
+        <v>1.436426357045554</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-10.42724351426097</v>
+      </c>
+      <c r="W5">
+        <v>2.09918463356974</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-29.79212432645992</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1509493894108073</v>
+      </c>
+      <c r="C6">
+        <v>2.834838459515666</v>
+      </c>
+      <c r="D6">
+        <v>1.740438459515666</v>
+      </c>
+      <c r="E6">
+        <v>-1.5544</v>
+      </c>
+      <c r="F6">
+        <v>0.2256</v>
+      </c>
+      <c r="G6">
+        <v>1.32</v>
+      </c>
+      <c r="H6">
+        <v>3.86</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.154</v>
+      </c>
+      <c r="K6">
+        <v>1.08</v>
+      </c>
+      <c r="L6">
+        <v>-0.926</v>
+      </c>
+      <c r="M6">
+        <v>0.04144272</v>
+      </c>
+      <c r="N6">
+        <v>-0.9674427200000001</v>
+      </c>
+      <c r="O6">
+        <v>-0.338604952</v>
+      </c>
+      <c r="P6">
+        <v>-0.6288377680000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.4511622319999999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08972588583720324</v>
+      </c>
+      <c r="T6">
+        <v>1.451389131598112</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-7.820432635695727</v>
+      </c>
+      <c r="W6">
+        <v>1.620313475177305</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-22.34409324484493</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1526933894108073</v>
+      </c>
+      <c r="C7">
+        <v>2.75727064497507</v>
+      </c>
+      <c r="D7">
+        <v>1.71927064497507</v>
+      </c>
+      <c r="E7">
+        <v>-1.498</v>
+      </c>
+      <c r="F7">
+        <v>0.282</v>
+      </c>
+      <c r="G7">
+        <v>1.32</v>
+      </c>
+      <c r="H7">
+        <v>3.86</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.154</v>
+      </c>
+      <c r="K7">
+        <v>1.08</v>
+      </c>
+      <c r="L7">
+        <v>-0.926</v>
+      </c>
+      <c r="M7">
+        <v>0.05180339999999999</v>
+      </c>
+      <c r="N7">
+        <v>-0.9778034</v>
+      </c>
+      <c r="O7">
+        <v>-0.34223119</v>
+      </c>
+      <c r="P7">
+        <v>-0.6355722100000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.44442779</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0905724741091738</v>
+      </c>
+      <c r="T7">
+        <v>1.466666911930723</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-6.256346108556582</v>
+      </c>
+      <c r="W7">
+        <v>1.332990780141844</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-17.87527459587595</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1544373894108073</v>
+      </c>
+      <c r="C8">
+        <v>2.680211543850207</v>
+      </c>
+      <c r="D8">
+        <v>1.698611543850207</v>
+      </c>
+      <c r="E8">
+        <v>-1.4416</v>
+      </c>
+      <c r="F8">
+        <v>0.3384</v>
+      </c>
+      <c r="G8">
+        <v>1.32</v>
+      </c>
+      <c r="H8">
+        <v>3.86</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.154</v>
+      </c>
+      <c r="K8">
+        <v>1.08</v>
+      </c>
+      <c r="L8">
+        <v>-0.926</v>
+      </c>
+      <c r="M8">
+        <v>0.06216408</v>
+      </c>
+      <c r="N8">
+        <v>-0.98816408</v>
+      </c>
+      <c r="O8">
+        <v>-0.345857428</v>
+      </c>
+      <c r="P8">
+        <v>-0.642306652</v>
+      </c>
+      <c r="Q8">
+        <v>0.437693348</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.09143707489756925</v>
+      </c>
+      <c r="T8">
+        <v>1.482269751419348</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-5.213621757130484</v>
+      </c>
+      <c r="W8">
+        <v>1.14144231678487</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-14.89606216322996</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1561813894108073</v>
+      </c>
+      <c r="C9">
+        <v>2.603643035475131</v>
+      </c>
+      <c r="D9">
+        <v>1.678443035475131</v>
+      </c>
+      <c r="E9">
+        <v>-1.3852</v>
+      </c>
+      <c r="F9">
+        <v>0.3948</v>
+      </c>
+      <c r="G9">
+        <v>1.32</v>
+      </c>
+      <c r="H9">
+        <v>3.86</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.154</v>
+      </c>
+      <c r="K9">
+        <v>1.08</v>
+      </c>
+      <c r="L9">
+        <v>-0.926</v>
+      </c>
+      <c r="M9">
+        <v>0.07252476000000001</v>
+      </c>
+      <c r="N9">
+        <v>-0.99852476</v>
+      </c>
+      <c r="O9">
+        <v>-0.349483666</v>
+      </c>
+      <c r="P9">
+        <v>-0.649041094</v>
+      </c>
+      <c r="Q9">
+        <v>0.4309589060000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.09232026925130656</v>
+      </c>
+      <c r="T9">
+        <v>1.498208135843212</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-4.468818648968986</v>
+      </c>
+      <c r="W9">
+        <v>1.004621985815603</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-12.76805328276853</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1579253894108073</v>
+      </c>
+      <c r="C10">
+        <v>2.527547849709947</v>
+      </c>
+      <c r="D10">
+        <v>1.658747849709947</v>
+      </c>
+      <c r="E10">
+        <v>-1.3288</v>
+      </c>
+      <c r="F10">
+        <v>0.4512</v>
+      </c>
+      <c r="G10">
+        <v>1.32</v>
+      </c>
+      <c r="H10">
+        <v>3.86</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.154</v>
+      </c>
+      <c r="K10">
+        <v>1.08</v>
+      </c>
+      <c r="L10">
+        <v>-0.926</v>
+      </c>
+      <c r="M10">
+        <v>0.08288544</v>
+      </c>
+      <c r="N10">
+        <v>-1.00888544</v>
+      </c>
+      <c r="O10">
+        <v>-0.353109904</v>
+      </c>
+      <c r="P10">
+        <v>-0.655775536</v>
+      </c>
+      <c r="Q10">
+        <v>0.424224464</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.09322266348229902</v>
+      </c>
+      <c r="T10">
+        <v>1.514493006884986</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-3.910216317847863</v>
+      </c>
+      <c r="W10">
+        <v>0.9020067375886526</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-11.17204662242247</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1596693894108073</v>
+      </c>
+      <c r="C11">
+        <v>2.45190951761836</v>
+      </c>
+      <c r="D11">
+        <v>1.639509517618361</v>
+      </c>
+      <c r="E11">
+        <v>-1.2724</v>
+      </c>
+      <c r="F11">
+        <v>0.5075999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.32</v>
+      </c>
+      <c r="H11">
+        <v>3.86</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.154</v>
+      </c>
+      <c r="K11">
+        <v>1.08</v>
+      </c>
+      <c r="L11">
+        <v>-0.926</v>
+      </c>
+      <c r="M11">
+        <v>0.09324611999999999</v>
+      </c>
+      <c r="N11">
+        <v>-1.01924612</v>
+      </c>
+      <c r="O11">
+        <v>-0.356736142</v>
+      </c>
+      <c r="P11">
+        <v>-0.6625099780000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.417490022</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.09414489055353308</v>
+      </c>
+      <c r="T11">
+        <v>1.531135787180425</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-3.47574783808699</v>
+      </c>
+      <c r="W11">
+        <v>0.8221948778565801</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-9.930708108819973</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1614133894108073</v>
+      </c>
+      <c r="C12">
+        <v>2.376712325538153</v>
+      </c>
+      <c r="D12">
+        <v>1.620712325538153</v>
+      </c>
+      <c r="E12">
+        <v>-1.216</v>
+      </c>
+      <c r="F12">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.32</v>
+      </c>
+      <c r="H12">
+        <v>3.86</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.154</v>
+      </c>
+      <c r="K12">
+        <v>1.08</v>
+      </c>
+      <c r="L12">
+        <v>-0.926</v>
+      </c>
+      <c r="M12">
+        <v>0.1036068</v>
+      </c>
+      <c r="N12">
+        <v>-1.0296068</v>
+      </c>
+      <c r="O12">
+        <v>-0.36036238</v>
+      </c>
+      <c r="P12">
+        <v>-0.6692444200000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.41075558</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.09508761155968344</v>
+      </c>
+      <c r="T12">
+        <v>1.548148407037986</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-3.128173054278291</v>
+      </c>
+      <c r="W12">
+        <v>0.7583453900709219</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-8.937637297937975</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1631573894108073</v>
+      </c>
+      <c r="C13">
+        <v>2.30194127227537</v>
+      </c>
+      <c r="D13">
+        <v>1.602341272275371</v>
+      </c>
+      <c r="E13">
+        <v>-1.1596</v>
+      </c>
+      <c r="F13">
+        <v>0.6204</v>
+      </c>
+      <c r="G13">
+        <v>1.32</v>
+      </c>
+      <c r="H13">
+        <v>3.86</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.154</v>
+      </c>
+      <c r="K13">
+        <v>1.08</v>
+      </c>
+      <c r="L13">
+        <v>-0.926</v>
+      </c>
+      <c r="M13">
+        <v>0.11396748</v>
+      </c>
+      <c r="N13">
+        <v>-1.03996748</v>
+      </c>
+      <c r="O13">
+        <v>-0.363988618</v>
+      </c>
+      <c r="P13">
+        <v>-0.675978862</v>
+      </c>
+      <c r="Q13">
+        <v>0.4040211380000001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.09605151730754506</v>
+      </c>
+      <c r="T13">
+        <v>1.565543332959761</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-2.843793685707537</v>
+      </c>
+      <c r="W13">
+        <v>0.7061049000644745</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-8.125124816307249</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1649013894108073</v>
+      </c>
+      <c r="C14">
+        <v>2.227582029177159</v>
+      </c>
+      <c r="D14">
+        <v>1.584382029177159</v>
+      </c>
+      <c r="E14">
+        <v>-1.1032</v>
+      </c>
+      <c r="F14">
+        <v>0.6768</v>
+      </c>
+      <c r="G14">
+        <v>1.32</v>
+      </c>
+      <c r="H14">
+        <v>3.86</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.154</v>
+      </c>
+      <c r="K14">
+        <v>1.08</v>
+      </c>
+      <c r="L14">
+        <v>-0.926</v>
+      </c>
+      <c r="M14">
+        <v>0.12432816</v>
+      </c>
+      <c r="N14">
+        <v>-1.05032816</v>
+      </c>
+      <c r="O14">
+        <v>-0.367614856</v>
+      </c>
+      <c r="P14">
+        <v>-0.6827133040000001</v>
+      </c>
+      <c r="Q14">
+        <v>0.397286696</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.09703733000422171</v>
+      </c>
+      <c r="T14">
+        <v>1.583333598107031</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-2.606810878565242</v>
+      </c>
+      <c r="W14">
+        <v>0.662571158392435</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-7.448031081614978</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1666453894108073</v>
+      </c>
+      <c r="C15">
+        <v>2.153620902859878</v>
+      </c>
+      <c r="D15">
+        <v>1.566820902859878</v>
+      </c>
+      <c r="E15">
+        <v>-1.0468</v>
+      </c>
+      <c r="F15">
+        <v>0.7332</v>
+      </c>
+      <c r="G15">
+        <v>1.32</v>
+      </c>
+      <c r="H15">
+        <v>3.86</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.154</v>
+      </c>
+      <c r="K15">
+        <v>1.08</v>
+      </c>
+      <c r="L15">
+        <v>-0.926</v>
+      </c>
+      <c r="M15">
+        <v>0.13468884</v>
+      </c>
+      <c r="N15">
+        <v>-1.06068884</v>
+      </c>
+      <c r="O15">
+        <v>-0.371241094</v>
+      </c>
+      <c r="P15">
+        <v>-0.6894477460000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.3905522539999999</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0980458050617415</v>
+      </c>
+      <c r="T15">
+        <v>1.601532834866882</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-2.406286964829454</v>
+      </c>
+      <c r="W15">
+        <v>0.6257349154391707</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-6.875105613798441</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1683893894108073</v>
+      </c>
+      <c r="C16">
+        <v>2.08004480038876</v>
+      </c>
+      <c r="D16">
+        <v>1.54964480038876</v>
+      </c>
+      <c r="E16">
+        <v>-0.9903999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.7896000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.32</v>
+      </c>
+      <c r="H16">
+        <v>3.86</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.154</v>
+      </c>
+      <c r="K16">
+        <v>1.08</v>
+      </c>
+      <c r="L16">
+        <v>-0.926</v>
+      </c>
+      <c r="M16">
+        <v>0.14504952</v>
+      </c>
+      <c r="N16">
+        <v>-1.07104952</v>
+      </c>
+      <c r="O16">
+        <v>-0.374867332</v>
+      </c>
+      <c r="P16">
+        <v>-0.6961821880000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.383817812</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.09907773302757569</v>
+      </c>
+      <c r="T16">
+        <v>1.620155309690915</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-2.234409324484493</v>
+      </c>
+      <c r="W16">
+        <v>0.5941609929078013</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-6.384026641384266</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1701333894108073</v>
+      </c>
+      <c r="C17">
+        <v>2.006841196723012</v>
+      </c>
+      <c r="D17">
+        <v>1.532841196723012</v>
+      </c>
+      <c r="E17">
+        <v>-0.9340000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.846</v>
+      </c>
+      <c r="G17">
+        <v>1.32</v>
+      </c>
+      <c r="H17">
+        <v>3.86</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.154</v>
+      </c>
+      <c r="K17">
+        <v>1.08</v>
+      </c>
+      <c r="L17">
+        <v>-0.926</v>
+      </c>
+      <c r="M17">
+        <v>0.1554102</v>
+      </c>
+      <c r="N17">
+        <v>-1.0814102</v>
+      </c>
+      <c r="O17">
+        <v>-0.37849357</v>
+      </c>
+      <c r="P17">
+        <v>-0.70291663</v>
+      </c>
+      <c r="Q17">
+        <v>0.37708337</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1001339416514295</v>
+      </c>
+      <c r="T17">
+        <v>1.639215960393162</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-2.085448702852194</v>
+      </c>
+      <c r="W17">
+        <v>0.566796926713948</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-5.958424865291983</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1718773894108073</v>
+      </c>
+      <c r="C18">
+        <v>1.93399810425626</v>
+      </c>
+      <c r="D18">
+        <v>1.516398104256261</v>
+      </c>
+      <c r="E18">
+        <v>-0.8776</v>
+      </c>
+      <c r="F18">
+        <v>0.9024</v>
+      </c>
+      <c r="G18">
+        <v>1.32</v>
+      </c>
+      <c r="H18">
+        <v>3.86</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.154</v>
+      </c>
+      <c r="K18">
+        <v>1.08</v>
+      </c>
+      <c r="L18">
+        <v>-0.926</v>
+      </c>
+      <c r="M18">
+        <v>0.16577088</v>
+      </c>
+      <c r="N18">
+        <v>-1.09177088</v>
+      </c>
+      <c r="O18">
+        <v>-0.382119808</v>
+      </c>
+      <c r="P18">
+        <v>-0.7096510720000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.370348928</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1012152980996608</v>
+      </c>
+      <c r="T18">
+        <v>1.658730436112128</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-1.955108158923932</v>
+      </c>
+      <c r="W18">
+        <v>0.5428533687943263</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-5.586023311211234</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1736213894108073</v>
+      </c>
+      <c r="C19">
+        <v>1.861504044296657</v>
+      </c>
+      <c r="D19">
+        <v>1.500304044296657</v>
+      </c>
+      <c r="E19">
+        <v>-0.8212</v>
+      </c>
+      <c r="F19">
+        <v>0.9588</v>
+      </c>
+      <c r="G19">
+        <v>1.32</v>
+      </c>
+      <c r="H19">
+        <v>3.86</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.154</v>
+      </c>
+      <c r="K19">
+        <v>1.08</v>
+      </c>
+      <c r="L19">
+        <v>-0.926</v>
+      </c>
+      <c r="M19">
+        <v>0.17613156</v>
+      </c>
+      <c r="N19">
+        <v>-1.10213156</v>
+      </c>
+      <c r="O19">
+        <v>-0.385746046</v>
+      </c>
+      <c r="P19">
+        <v>-0.7163855140000002</v>
+      </c>
+      <c r="Q19">
+        <v>0.3636144859999999</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1023227113297772</v>
+      </c>
+      <c r="T19">
+        <v>1.678715140161671</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-1.840101796634289</v>
+      </c>
+      <c r="W19">
+        <v>0.5217267000417188</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-5.257433704669397</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1753653894108073</v>
+      </c>
+      <c r="C20">
+        <v>1.789348020344064</v>
+      </c>
+      <c r="D20">
+        <v>1.484548020344064</v>
+      </c>
+      <c r="E20">
+        <v>-0.7648000000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.0152</v>
+      </c>
+      <c r="G20">
+        <v>1.32</v>
+      </c>
+      <c r="H20">
+        <v>3.86</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.154</v>
+      </c>
+      <c r="K20">
+        <v>1.08</v>
+      </c>
+      <c r="L20">
+        <v>-0.926</v>
+      </c>
+      <c r="M20">
+        <v>0.18649224</v>
+      </c>
+      <c r="N20">
+        <v>-1.11249224</v>
+      </c>
+      <c r="O20">
+        <v>-0.389372284</v>
+      </c>
+      <c r="P20">
+        <v>-0.7231199559999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.3568800440000002</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.103457134638677</v>
+      </c>
+      <c r="T20">
+        <v>1.699187276017301</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-1.737873919043495</v>
+      </c>
+      <c r="W20">
+        <v>0.5029474389282901</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-4.965354054409985</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1771093894108073</v>
+      </c>
+      <c r="C21">
+        <v>1.717519493033582</v>
+      </c>
+      <c r="D21">
+        <v>1.469119493033582</v>
+      </c>
+      <c r="E21">
+        <v>-0.7084000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.0716</v>
+      </c>
+      <c r="G21">
+        <v>1.32</v>
+      </c>
+      <c r="H21">
+        <v>3.86</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.154</v>
+      </c>
+      <c r="K21">
+        <v>1.08</v>
+      </c>
+      <c r="L21">
+        <v>-0.926</v>
+      </c>
+      <c r="M21">
+        <v>0.19685292</v>
+      </c>
+      <c r="N21">
+        <v>-1.12285292</v>
+      </c>
+      <c r="O21">
+        <v>-0.392998522</v>
+      </c>
+      <c r="P21">
+        <v>-0.7298543980000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.350145602</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1046195683996483</v>
+      </c>
+      <c r="T21">
+        <v>1.720164896708873</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-1.646406870672785</v>
+      </c>
+      <c r="W21">
+        <v>0.4861449421425905</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-4.704019630493671</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1788533894108073</v>
+      </c>
+      <c r="C22">
+        <v>1.646008356625434</v>
+      </c>
+      <c r="D22">
+        <v>1.454008356625433</v>
+      </c>
+      <c r="E22">
+        <v>-0.6520000000000001</v>
+      </c>
+      <c r="F22">
+        <v>1.128</v>
+      </c>
+      <c r="G22">
+        <v>1.32</v>
+      </c>
+      <c r="H22">
+        <v>3.86</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.154</v>
+      </c>
+      <c r="K22">
+        <v>1.08</v>
+      </c>
+      <c r="L22">
+        <v>-0.926</v>
+      </c>
+      <c r="M22">
+        <v>0.2072136</v>
+      </c>
+      <c r="N22">
+        <v>-1.1332136</v>
+      </c>
+      <c r="O22">
+        <v>-0.39662476</v>
+      </c>
+      <c r="P22">
+        <v>-0.73658884</v>
+      </c>
+      <c r="Q22">
+        <v>0.34341116</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1058110630046439</v>
+      </c>
+      <c r="T22">
+        <v>1.741666957917734</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-1.564086527139146</v>
+      </c>
+      <c r="W22">
+        <v>0.471022695035461</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-4.468818648968987</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1805973894108073</v>
+      </c>
+      <c r="C23">
+        <v>1.574804916931013</v>
+      </c>
+      <c r="D23">
+        <v>1.439204916931012</v>
+      </c>
+      <c r="E23">
+        <v>-0.5956000000000001</v>
+      </c>
+      <c r="F23">
+        <v>1.1844</v>
+      </c>
+      <c r="G23">
+        <v>1.32</v>
+      </c>
+      <c r="H23">
+        <v>3.86</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.154</v>
+      </c>
+      <c r="K23">
+        <v>1.08</v>
+      </c>
+      <c r="L23">
+        <v>-0.926</v>
+      </c>
+      <c r="M23">
+        <v>0.21757428</v>
+      </c>
+      <c r="N23">
+        <v>-1.14357428</v>
+      </c>
+      <c r="O23">
+        <v>-0.400250998</v>
+      </c>
+      <c r="P23">
+        <v>-0.743323282</v>
+      </c>
+      <c r="Q23">
+        <v>0.3366767180000001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1070327220300191</v>
+      </c>
+      <c r="T23">
+        <v>1.763713375106566</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-1.489606216322996</v>
+      </c>
+      <c r="W23">
+        <v>0.4573406619385342</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-4.256017760922845</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1823413894108073</v>
+      </c>
+      <c r="C24">
+        <v>1.503899870573756</v>
+      </c>
+      <c r="D24">
+        <v>1.424699870573756</v>
+      </c>
+      <c r="E24">
+        <v>-0.5392000000000001</v>
+      </c>
+      <c r="F24">
+        <v>1.2408</v>
+      </c>
+      <c r="G24">
+        <v>1.32</v>
+      </c>
+      <c r="H24">
+        <v>3.86</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.154</v>
+      </c>
+      <c r="K24">
+        <v>1.08</v>
+      </c>
+      <c r="L24">
+        <v>-0.926</v>
+      </c>
+      <c r="M24">
+        <v>0.22793496</v>
+      </c>
+      <c r="N24">
+        <v>-1.15393496</v>
+      </c>
+      <c r="O24">
+        <v>-0.403877236</v>
+      </c>
+      <c r="P24">
+        <v>-0.7500577239999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.3299422760000001</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1082857056457886</v>
+      </c>
+      <c r="T24">
+        <v>1.78632508504383</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-1.421896842853768</v>
+      </c>
+      <c r="W24">
+        <v>0.4449024500322373</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-4.062562408153624</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1840853894108073</v>
+      </c>
+      <c r="C25">
+        <v>1.433284285491638</v>
+      </c>
+      <c r="D25">
+        <v>1.410484285491638</v>
+      </c>
+      <c r="E25">
+        <v>-0.4828000000000001</v>
+      </c>
+      <c r="F25">
+        <v>1.2972</v>
+      </c>
+      <c r="G25">
+        <v>1.32</v>
+      </c>
+      <c r="H25">
+        <v>3.86</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.154</v>
+      </c>
+      <c r="K25">
+        <v>1.08</v>
+      </c>
+      <c r="L25">
+        <v>-0.926</v>
+      </c>
+      <c r="M25">
+        <v>0.23829564</v>
+      </c>
+      <c r="N25">
+        <v>-1.16429564</v>
+      </c>
+      <c r="O25">
+        <v>-0.407503474</v>
+      </c>
+      <c r="P25">
+        <v>-0.756792166</v>
+      </c>
+      <c r="Q25">
+        <v>0.3232078340000001</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1095712342905391</v>
+      </c>
+      <c r="T25">
+        <v>1.809524112122321</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-1.360075240990561</v>
+      </c>
+      <c r="W25">
+        <v>0.433545821769966</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-3.885929259973032</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1858293894108073</v>
+      </c>
+      <c r="C26">
+        <v>1.36294958259538</v>
+      </c>
+      <c r="D26">
+        <v>1.39654958259538</v>
+      </c>
+      <c r="E26">
+        <v>-0.4264000000000001</v>
+      </c>
+      <c r="F26">
+        <v>1.3536</v>
+      </c>
+      <c r="G26">
+        <v>1.32</v>
+      </c>
+      <c r="H26">
+        <v>3.86</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.154</v>
+      </c>
+      <c r="K26">
+        <v>1.08</v>
+      </c>
+      <c r="L26">
+        <v>-0.926</v>
+      </c>
+      <c r="M26">
+        <v>0.24865632</v>
+      </c>
+      <c r="N26">
+        <v>-1.17465632</v>
+      </c>
+      <c r="O26">
+        <v>-0.411129712</v>
+      </c>
+      <c r="P26">
+        <v>-0.7635266080000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.316473392</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1108905926364672</v>
+      </c>
+      <c r="T26">
+        <v>1.833333639913404</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-1.303405439282621</v>
+      </c>
+      <c r="W26">
+        <v>0.4231355791962175</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-3.724015540807489</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1875733894108073</v>
+      </c>
+      <c r="C27">
+        <v>1.29288751850328</v>
+      </c>
+      <c r="D27">
+        <v>1.382887518503279</v>
+      </c>
+      <c r="E27">
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="F27">
+        <v>1.41</v>
+      </c>
+      <c r="G27">
+        <v>1.32</v>
+      </c>
+      <c r="H27">
+        <v>3.86</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.154</v>
+      </c>
+      <c r="K27">
+        <v>1.08</v>
+      </c>
+      <c r="L27">
+        <v>-0.926</v>
+      </c>
+      <c r="M27">
+        <v>0.259017</v>
+      </c>
+      <c r="N27">
+        <v>-1.185017</v>
+      </c>
+      <c r="O27">
+        <v>-0.41475595</v>
+      </c>
+      <c r="P27">
+        <v>-0.77026105</v>
+      </c>
+      <c r="Q27">
+        <v>0.3097389500000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1122451338716201</v>
+      </c>
+      <c r="T27">
+        <v>1.857778088445583</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-1.251269221711316</v>
+      </c>
+      <c r="W27">
+        <v>0.4135581560283688</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-3.575054919175189</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1893173894108073</v>
+      </c>
+      <c r="C28">
+        <v>1.223090169279611</v>
+      </c>
+      <c r="D28">
+        <v>1.369490169279611</v>
+      </c>
+      <c r="E28">
+        <v>-0.3136000000000001</v>
+      </c>
+      <c r="F28">
+        <v>1.4664</v>
+      </c>
+      <c r="G28">
+        <v>1.32</v>
+      </c>
+      <c r="H28">
+        <v>3.86</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.154</v>
+      </c>
+      <c r="K28">
+        <v>1.08</v>
+      </c>
+      <c r="L28">
+        <v>-0.926</v>
+      </c>
+      <c r="M28">
+        <v>0.26937768</v>
+      </c>
+      <c r="N28">
+        <v>-1.19537768</v>
+      </c>
+      <c r="O28">
+        <v>-0.418382188</v>
+      </c>
+      <c r="P28">
+        <v>-0.776995492</v>
+      </c>
+      <c r="Q28">
+        <v>0.3030045080000001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1136362843293447</v>
+      </c>
+      <c r="T28">
+        <v>1.882883197748901</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-1.203143482414727</v>
+      </c>
+      <c r="W28">
+        <v>0.4047174577195854</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-3.43755280689922</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1910613894108073</v>
+      </c>
+      <c r="C29">
+        <v>1.153549915109208</v>
+      </c>
+      <c r="D29">
+        <v>1.356349915109208</v>
+      </c>
+      <c r="E29">
+        <v>-0.2572000000000001</v>
+      </c>
+      <c r="F29">
+        <v>1.5228</v>
+      </c>
+      <c r="G29">
+        <v>1.32</v>
+      </c>
+      <c r="H29">
+        <v>3.86</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.154</v>
+      </c>
+      <c r="K29">
+        <v>1.08</v>
+      </c>
+      <c r="L29">
+        <v>-0.926</v>
+      </c>
+      <c r="M29">
+        <v>0.27973836</v>
+      </c>
+      <c r="N29">
+        <v>-1.20573836</v>
+      </c>
+      <c r="O29">
+        <v>-0.422008426</v>
+      </c>
+      <c r="P29">
+        <v>-0.783729934</v>
+      </c>
+      <c r="Q29">
+        <v>0.2962700660000001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1150655484982399</v>
+      </c>
+      <c r="T29">
+        <v>1.90867611826601</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-1.158582612695663</v>
+      </c>
+      <c r="W29">
+        <v>0.3965316259521933</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-3.310236036273324</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1928053894108073</v>
+      </c>
+      <c r="C30">
+        <v>1.084259425845947</v>
+      </c>
+      <c r="D30">
+        <v>1.343459425845947</v>
+      </c>
+      <c r="E30">
+        <v>-0.2007999999999999</v>
+      </c>
+      <c r="F30">
+        <v>1.5792</v>
+      </c>
+      <c r="G30">
+        <v>1.32</v>
+      </c>
+      <c r="H30">
+        <v>3.86</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.154</v>
+      </c>
+      <c r="K30">
+        <v>1.08</v>
+      </c>
+      <c r="L30">
+        <v>-0.926</v>
+      </c>
+      <c r="M30">
+        <v>0.29009904</v>
+      </c>
+      <c r="N30">
+        <v>-1.21609904</v>
+      </c>
+      <c r="O30">
+        <v>-0.425634664</v>
+      </c>
+      <c r="P30">
+        <v>-0.7904643760000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.289535624</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1165345144496043</v>
+      </c>
+      <c r="T30">
+        <v>1.935185508797482</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-1.117204662242246</v>
+      </c>
+      <c r="W30">
+        <v>0.3889304964539007</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-3.192013320692133</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1945493894108073</v>
+      </c>
+      <c r="C31">
+        <v>1.015211647377542</v>
+      </c>
+      <c r="D31">
+        <v>1.330811647377541</v>
+      </c>
+      <c r="E31">
+        <v>-0.1444000000000003</v>
+      </c>
+      <c r="F31">
+        <v>1.6356</v>
+      </c>
+      <c r="G31">
+        <v>1.32</v>
+      </c>
+      <c r="H31">
+        <v>3.86</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.154</v>
+      </c>
+      <c r="K31">
+        <v>1.08</v>
+      </c>
+      <c r="L31">
+        <v>-0.926</v>
+      </c>
+      <c r="M31">
+        <v>0.3004597199999999</v>
+      </c>
+      <c r="N31">
+        <v>-1.22645972</v>
+      </c>
+      <c r="O31">
+        <v>-0.429260902</v>
+      </c>
+      <c r="P31">
+        <v>-0.797198818</v>
+      </c>
+      <c r="Q31">
+        <v>0.282801182</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1180448597235424</v>
+      </c>
+      <c r="T31">
+        <v>1.962441642724208</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-1.078680363544238</v>
+      </c>
+      <c r="W31">
+        <v>0.3818535827830766</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-3.081943895840682</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1962933894108073</v>
+      </c>
+      <c r="C32">
+        <v>0.9463997887533442</v>
+      </c>
+      <c r="D32">
+        <v>1.318399788753344</v>
+      </c>
+      <c r="E32">
+        <v>-0.08800000000000008</v>
+      </c>
+      <c r="F32">
+        <v>1.692</v>
+      </c>
+      <c r="G32">
+        <v>1.32</v>
+      </c>
+      <c r="H32">
+        <v>3.86</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.154</v>
+      </c>
+      <c r="K32">
+        <v>1.08</v>
+      </c>
+      <c r="L32">
+        <v>-0.926</v>
+      </c>
+      <c r="M32">
+        <v>0.3108204</v>
+      </c>
+      <c r="N32">
+        <v>-1.2368204</v>
+      </c>
+      <c r="O32">
+        <v>-0.43288714</v>
+      </c>
+      <c r="P32">
+        <v>-0.80393326</v>
+      </c>
+      <c r="Q32">
+        <v>0.2760667400000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.119598357719593</v>
+      </c>
+      <c r="T32">
+        <v>1.990476523334553</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-1.042724351426097</v>
+      </c>
+      <c r="W32">
+        <v>0.375248463356974</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-2.979212432645991</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1980373894108073</v>
+      </c>
+      <c r="C33">
+        <v>0.877817310025818</v>
+      </c>
+      <c r="D33">
+        <v>1.306217310025818</v>
+      </c>
+      <c r="E33">
+        <v>-0.03160000000000007</v>
+      </c>
+      <c r="F33">
+        <v>1.7484</v>
+      </c>
+      <c r="G33">
+        <v>1.32</v>
+      </c>
+      <c r="H33">
+        <v>3.86</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.154</v>
+      </c>
+      <c r="K33">
+        <v>1.08</v>
+      </c>
+      <c r="L33">
+        <v>-0.926</v>
+      </c>
+      <c r="M33">
+        <v>0.32118108</v>
+      </c>
+      <c r="N33">
+        <v>-1.24718108</v>
+      </c>
+      <c r="O33">
+        <v>-0.436513378</v>
+      </c>
+      <c r="P33">
+        <v>-0.810667702</v>
+      </c>
+      <c r="Q33">
+        <v>0.269332298</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1211968846430654</v>
+      </c>
+      <c r="T33">
+        <v>2.019324009179982</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-1.009088082025255</v>
+      </c>
+      <c r="W33">
+        <v>0.3690694806680394</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-2.883108805786443</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1997813894108073</v>
+      </c>
+      <c r="C34">
+        <v>0.8094579107599296</v>
+      </c>
+      <c r="D34">
+        <v>1.294257910759929</v>
+      </c>
+      <c r="E34">
+        <v>0.02479999999999993</v>
+      </c>
+      <c r="F34">
+        <v>1.8048</v>
+      </c>
+      <c r="G34">
+        <v>1.32</v>
+      </c>
+      <c r="H34">
+        <v>3.86</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.154</v>
+      </c>
+      <c r="K34">
+        <v>1.08</v>
+      </c>
+      <c r="L34">
+        <v>-0.926</v>
+      </c>
+      <c r="M34">
+        <v>0.33154176</v>
+      </c>
+      <c r="N34">
+        <v>-1.25754176</v>
+      </c>
+      <c r="O34">
+        <v>-0.440139616</v>
+      </c>
+      <c r="P34">
+        <v>-0.8174021440000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.262597856</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1228424270642869</v>
+      </c>
+      <c r="T34">
+        <v>2.049019950491452</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.9775540794619658</v>
+      </c>
+      <c r="W34">
+        <v>0.3632766843971632</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-2.793011655605617</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.2015253894108073</v>
+      </c>
+      <c r="C35">
+        <v>0.7413155191680396</v>
+      </c>
+      <c r="D35">
+        <v>1.282515519168039</v>
+      </c>
+      <c r="E35">
+        <v>0.08119999999999994</v>
+      </c>
+      <c r="F35">
+        <v>1.8612</v>
+      </c>
+      <c r="G35">
+        <v>1.32</v>
+      </c>
+      <c r="H35">
+        <v>3.86</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.154</v>
+      </c>
+      <c r="K35">
+        <v>1.08</v>
+      </c>
+      <c r="L35">
+        <v>-0.926</v>
+      </c>
+      <c r="M35">
+        <v>0.34190244</v>
+      </c>
+      <c r="N35">
+        <v>-1.26790244</v>
+      </c>
+      <c r="O35">
+        <v>-0.443765854</v>
+      </c>
+      <c r="P35">
+        <v>-0.8241365860000001</v>
+      </c>
+      <c r="Q35">
+        <v>0.255863414</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1245370901547986</v>
+      </c>
+      <c r="T35">
+        <v>2.079602337812219</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.947931228569179</v>
+      </c>
+      <c r="W35">
+        <v>0.3578349666881582</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-2.708374938769083</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.2032693894108073</v>
+      </c>
+      <c r="C36">
+        <v>0.6733842818309361</v>
+      </c>
+      <c r="D36">
+        <v>1.270984281830936</v>
+      </c>
+      <c r="E36">
+        <v>0.1375999999999999</v>
+      </c>
+      <c r="F36">
+        <v>1.9176</v>
+      </c>
+      <c r="G36">
+        <v>1.32</v>
+      </c>
+      <c r="H36">
+        <v>3.86</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.154</v>
+      </c>
+      <c r="K36">
+        <v>1.08</v>
+      </c>
+      <c r="L36">
+        <v>-0.926</v>
+      </c>
+      <c r="M36">
+        <v>0.35226312</v>
+      </c>
+      <c r="N36">
+        <v>-1.27826312</v>
+      </c>
+      <c r="O36">
+        <v>-0.447392092</v>
+      </c>
+      <c r="P36">
+        <v>-0.830871028</v>
+      </c>
+      <c r="Q36">
+        <v>0.2491289720000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1262831066722956</v>
+      </c>
+      <c r="T36">
+        <v>2.111111464142708</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.9200508983171443</v>
+      </c>
+      <c r="W36">
+        <v>0.3527133500208594</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-2.628716852334698</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.2050133894108073</v>
+      </c>
+      <c r="C37">
+        <v>0.6056585539684425</v>
+      </c>
+      <c r="D37">
+        <v>1.259658553968442</v>
+      </c>
+      <c r="E37">
+        <v>0.194</v>
+      </c>
+      <c r="F37">
+        <v>1.974</v>
+      </c>
+      <c r="G37">
+        <v>1.32</v>
+      </c>
+      <c r="H37">
+        <v>3.86</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.154</v>
+      </c>
+      <c r="K37">
+        <v>1.08</v>
+      </c>
+      <c r="L37">
+        <v>-0.926</v>
+      </c>
+      <c r="M37">
+        <v>0.3626238</v>
+      </c>
+      <c r="N37">
+        <v>-1.2886238</v>
+      </c>
+      <c r="O37">
+        <v>-0.45101833</v>
+      </c>
+      <c r="P37">
+        <v>-0.8376054700000001</v>
+      </c>
+      <c r="Q37">
+        <v>0.24239453</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1280828467749463</v>
+      </c>
+      <c r="T37">
+        <v>2.143590102052596</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.8937637297937974</v>
+      </c>
+      <c r="W37">
+        <v>0.3478843971631206</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-2.553610656553707</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.2067573894108073</v>
+      </c>
+      <c r="C38">
+        <v>0.5381328902256155</v>
+      </c>
+      <c r="D38">
+        <v>1.248532890225615</v>
+      </c>
+      <c r="E38">
+        <v>0.2503999999999997</v>
+      </c>
+      <c r="F38">
+        <v>2.0304</v>
+      </c>
+      <c r="G38">
+        <v>1.32</v>
+      </c>
+      <c r="H38">
+        <v>3.86</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.154</v>
+      </c>
+      <c r="K38">
+        <v>1.08</v>
+      </c>
+      <c r="L38">
+        <v>-0.926</v>
+      </c>
+      <c r="M38">
+        <v>0.37298448</v>
+      </c>
+      <c r="N38">
+        <v>-1.29898448</v>
+      </c>
+      <c r="O38">
+        <v>-0.454644568</v>
+      </c>
+      <c r="P38">
+        <v>-0.8443399120000001</v>
+      </c>
+      <c r="Q38">
+        <v>0.2356600879999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1299388287558048</v>
+      </c>
+      <c r="T38">
+        <v>2.177083697397167</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.8689369595217475</v>
+      </c>
+      <c r="W38">
+        <v>0.343323719464145</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-2.482677027204993</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.2085013894108073</v>
+      </c>
+      <c r="C39">
+        <v>0.4708020359429539</v>
+      </c>
+      <c r="D39">
+        <v>1.237602035942953</v>
+      </c>
+      <c r="E39">
+        <v>0.3067999999999997</v>
+      </c>
+      <c r="F39">
+        <v>2.0868</v>
+      </c>
+      <c r="G39">
+        <v>1.32</v>
+      </c>
+      <c r="H39">
+        <v>3.86</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.154</v>
+      </c>
+      <c r="K39">
+        <v>1.08</v>
+      </c>
+      <c r="L39">
+        <v>-0.926</v>
+      </c>
+      <c r="M39">
+        <v>0.38334516</v>
+      </c>
+      <c r="N39">
+        <v>-1.30934516</v>
+      </c>
+      <c r="O39">
+        <v>-0.4582708059999999</v>
+      </c>
+      <c r="P39">
+        <v>-0.851074354</v>
+      </c>
+      <c r="Q39">
+        <v>0.2289256460000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1318537307995478</v>
+      </c>
+      <c r="T39">
+        <v>2.211640581482837</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.8454521768319705</v>
+      </c>
+      <c r="W39">
+        <v>0.339009564884033</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-2.415577648091344</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.2102453894108073</v>
+      </c>
+      <c r="C40">
+        <v>0.4036609188811826</v>
+      </c>
+      <c r="D40">
+        <v>1.226860918881182</v>
+      </c>
+      <c r="E40">
+        <v>0.3631999999999997</v>
+      </c>
+      <c r="F40">
+        <v>2.1432</v>
+      </c>
+      <c r="G40">
+        <v>1.32</v>
+      </c>
+      <c r="H40">
+        <v>3.86</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.154</v>
+      </c>
+      <c r="K40">
+        <v>1.08</v>
+      </c>
+      <c r="L40">
+        <v>-0.926</v>
+      </c>
+      <c r="M40">
+        <v>0.39370584</v>
+      </c>
+      <c r="N40">
+        <v>-1.31970584</v>
+      </c>
+      <c r="O40">
+        <v>-0.461897044</v>
+      </c>
+      <c r="P40">
+        <v>-0.857808796</v>
+      </c>
+      <c r="Q40">
+        <v>0.222191204</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1338304038769598</v>
+      </c>
+      <c r="T40">
+        <v>2.247312203764818</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.8232034353363923</v>
+      </c>
+      <c r="W40">
+        <v>0.3349224710712952</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-2.352009815246836</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.2119893894108073</v>
+      </c>
+      <c r="C41">
+        <v>0.3367046413732759</v>
+      </c>
+      <c r="D41">
+        <v>1.216304641373276</v>
+      </c>
+      <c r="E41">
+        <v>0.4195999999999998</v>
+      </c>
+      <c r="F41">
+        <v>2.1996</v>
+      </c>
+      <c r="G41">
+        <v>1.32</v>
+      </c>
+      <c r="H41">
+        <v>3.86</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.154</v>
+      </c>
+      <c r="K41">
+        <v>1.08</v>
+      </c>
+      <c r="L41">
+        <v>-0.926</v>
+      </c>
+      <c r="M41">
+        <v>0.40406652</v>
+      </c>
+      <c r="N41">
+        <v>-1.33006652</v>
+      </c>
+      <c r="O41">
+        <v>-0.4655232819999999</v>
+      </c>
+      <c r="P41">
+        <v>-0.864543238</v>
+      </c>
+      <c r="Q41">
+        <v>0.2154567620000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1358718859077297</v>
+      </c>
+      <c r="T41">
+        <v>2.284153387433093</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.8020956549431514</v>
+      </c>
+      <c r="W41">
+        <v>0.3310449718130569</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-2.291701871266147</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.2137333894108073</v>
+      </c>
+      <c r="C42">
+        <v>0.269928472878155</v>
+      </c>
+      <c r="D42">
+        <v>1.205928472878155</v>
+      </c>
+      <c r="E42">
+        <v>0.4759999999999998</v>
+      </c>
+      <c r="F42">
+        <v>2.256</v>
+      </c>
+      <c r="G42">
+        <v>1.32</v>
+      </c>
+      <c r="H42">
+        <v>3.86</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.154</v>
+      </c>
+      <c r="K42">
+        <v>1.08</v>
+      </c>
+      <c r="L42">
+        <v>-0.926</v>
+      </c>
+      <c r="M42">
+        <v>0.4144271999999999</v>
+      </c>
+      <c r="N42">
+        <v>-1.3404272</v>
+      </c>
+      <c r="O42">
+        <v>-0.4691495199999999</v>
+      </c>
+      <c r="P42">
+        <v>-0.8712776799999999</v>
+      </c>
+      <c r="Q42">
+        <v>0.2087223200000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1379814173395252</v>
+      </c>
+      <c r="T42">
+        <v>2.322222610556979</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.7820432635695728</v>
+      </c>
+      <c r="W42">
+        <v>0.3273613475177305</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-2.234409324484494</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.2154773894108073</v>
+      </c>
+      <c r="C43">
+        <v>0.2033278429123295</v>
+      </c>
+      <c r="D43">
+        <v>1.19572784291233</v>
+      </c>
+      <c r="E43">
+        <v>0.5324000000000002</v>
+      </c>
+      <c r="F43">
+        <v>2.3124</v>
+      </c>
+      <c r="G43">
+        <v>1.32</v>
+      </c>
+      <c r="H43">
+        <v>3.86</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.154</v>
+      </c>
+      <c r="K43">
+        <v>1.08</v>
+      </c>
+      <c r="L43">
+        <v>-0.926</v>
+      </c>
+      <c r="M43">
+        <v>0.4247878800000001</v>
+      </c>
+      <c r="N43">
+        <v>-1.35078788</v>
+      </c>
+      <c r="O43">
+        <v>-0.472775758</v>
+      </c>
+      <c r="P43">
+        <v>-0.8780121220000001</v>
+      </c>
+      <c r="Q43">
+        <v>0.201987878</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1401624583113815</v>
+      </c>
+      <c r="T43">
+        <v>2.361582315820656</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.7629690376288513</v>
+      </c>
+      <c r="W43">
+        <v>0.32385741221242</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-2.179911536082432</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.2172213894108073</v>
+      </c>
+      <c r="C44">
+        <v>0.1368983343372467</v>
+      </c>
+      <c r="D44">
+        <v>1.185698334337246</v>
+      </c>
+      <c r="E44">
+        <v>0.5887999999999998</v>
+      </c>
+      <c r="F44">
+        <v>2.3688</v>
+      </c>
+      <c r="G44">
+        <v>1.32</v>
+      </c>
+      <c r="H44">
+        <v>3.86</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.154</v>
+      </c>
+      <c r="K44">
+        <v>1.08</v>
+      </c>
+      <c r="L44">
+        <v>-0.926</v>
+      </c>
+      <c r="M44">
+        <v>0.43514856</v>
+      </c>
+      <c r="N44">
+        <v>-1.36114856</v>
+      </c>
+      <c r="O44">
+        <v>-0.4764019959999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.8847465640000001</v>
+      </c>
+      <c r="Q44">
+        <v>0.195253436</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1424187075926122</v>
+      </c>
+      <c r="T44">
+        <v>2.402299252300322</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.7448031081614978</v>
+      </c>
+      <c r="W44">
+        <v>0.3205203309692671</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-2.128008880461422</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.2189653894108073</v>
+      </c>
+      <c r="C45">
+        <v>0.07063567698166073</v>
+      </c>
+      <c r="D45">
+        <v>1.17583567698166</v>
+      </c>
+      <c r="E45">
+        <v>0.6451999999999998</v>
+      </c>
+      <c r="F45">
+        <v>2.4252</v>
+      </c>
+      <c r="G45">
+        <v>1.32</v>
+      </c>
+      <c r="H45">
+        <v>3.86</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.154</v>
+      </c>
+      <c r="K45">
+        <v>1.08</v>
+      </c>
+      <c r="L45">
+        <v>-0.926</v>
+      </c>
+      <c r="M45">
+        <v>0.44550924</v>
+      </c>
+      <c r="N45">
+        <v>-1.37150924</v>
+      </c>
+      <c r="O45">
+        <v>-0.4800282339999999</v>
+      </c>
+      <c r="P45">
+        <v>-0.891481006</v>
+      </c>
+      <c r="Q45">
+        <v>0.1885189940000001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1447541235152896</v>
+      </c>
+      <c r="T45">
+        <v>2.444444853217872</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.727482105646114</v>
+      </c>
+      <c r="W45">
+        <v>0.3173384628071911</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-2.07852030184604</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.2207093894108073</v>
+      </c>
+      <c r="C46">
+        <v>0.004535741579684505</v>
+      </c>
+      <c r="D46">
+        <v>1.166135741579684</v>
+      </c>
+      <c r="E46">
+        <v>0.7015999999999998</v>
+      </c>
+      <c r="F46">
+        <v>2.4816</v>
+      </c>
+      <c r="G46">
+        <v>1.32</v>
+      </c>
+      <c r="H46">
+        <v>3.86</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.154</v>
+      </c>
+      <c r="K46">
+        <v>1.08</v>
+      </c>
+      <c r="L46">
+        <v>-0.926</v>
+      </c>
+      <c r="M46">
+        <v>0.45586992</v>
+      </c>
+      <c r="N46">
+        <v>-1.38186992</v>
+      </c>
+      <c r="O46">
+        <v>-0.4836544719999999</v>
+      </c>
+      <c r="P46">
+        <v>-0.898215448</v>
+      </c>
+      <c r="Q46">
+        <v>0.1817845520000001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1471729471494913</v>
+      </c>
+      <c r="T46">
+        <v>2.488095654168191</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.7109484214268842</v>
+      </c>
+      <c r="W46">
+        <v>0.3143012250161186</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-2.031281204076812</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.2224533894108073</v>
+      </c>
+      <c r="C47">
+        <v>-0.06140546599358698</v>
+      </c>
+      <c r="D47">
+        <v>1.156594534006413</v>
+      </c>
+      <c r="E47">
+        <v>0.7579999999999998</v>
+      </c>
+      <c r="F47">
+        <v>2.538</v>
+      </c>
+      <c r="G47">
+        <v>1.32</v>
+      </c>
+      <c r="H47">
+        <v>3.86</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.154</v>
+      </c>
+      <c r="K47">
+        <v>1.08</v>
+      </c>
+      <c r="L47">
+        <v>-0.926</v>
+      </c>
+      <c r="M47">
+        <v>0.4662306</v>
+      </c>
+      <c r="N47">
+        <v>-1.3922306</v>
+      </c>
+      <c r="O47">
+        <v>-0.48728071</v>
+      </c>
+      <c r="P47">
+        <v>-0.90494989</v>
+      </c>
+      <c r="Q47">
+        <v>0.17505011</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1496797280067547</v>
+      </c>
+      <c r="T47">
+        <v>2.53333375697125</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.695149567617398</v>
+      </c>
+      <c r="W47">
+        <v>0.311398975571316</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-1.986141621763994</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.2241973894108073</v>
+      </c>
+      <c r="C48">
+        <v>-0.1271918102057592</v>
+      </c>
+      <c r="D48">
+        <v>1.147208189794241</v>
+      </c>
+      <c r="E48">
+        <v>0.8143999999999998</v>
+      </c>
+      <c r="F48">
+        <v>2.5944</v>
+      </c>
+      <c r="G48">
+        <v>1.32</v>
+      </c>
+      <c r="H48">
+        <v>3.86</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.154</v>
+      </c>
+      <c r="K48">
+        <v>1.08</v>
+      </c>
+      <c r="L48">
+        <v>-0.926</v>
+      </c>
+      <c r="M48">
+        <v>0.47659128</v>
+      </c>
+      <c r="N48">
+        <v>-1.40259128</v>
+      </c>
+      <c r="O48">
+        <v>-0.490906948</v>
+      </c>
+      <c r="P48">
+        <v>-0.9116843320000001</v>
+      </c>
+      <c r="Q48">
+        <v>0.168315668</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1522793525994724</v>
+      </c>
+      <c r="T48">
+        <v>2.580247345063309</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.6800376204952806</v>
+      </c>
+      <c r="W48">
+        <v>0.308622910884983</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-1.942964629986516</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.2259413894108073</v>
+      </c>
+      <c r="C49">
+        <v>-0.192827031085955</v>
+      </c>
+      <c r="D49">
+        <v>1.137972968914045</v>
+      </c>
+      <c r="E49">
+        <v>0.8707999999999998</v>
+      </c>
+      <c r="F49">
+        <v>2.6508</v>
+      </c>
+      <c r="G49">
+        <v>1.32</v>
+      </c>
+      <c r="H49">
+        <v>3.86</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.154</v>
+      </c>
+      <c r="K49">
+        <v>1.08</v>
+      </c>
+      <c r="L49">
+        <v>-0.926</v>
+      </c>
+      <c r="M49">
+        <v>0.48695196</v>
+      </c>
+      <c r="N49">
+        <v>-1.41295196</v>
+      </c>
+      <c r="O49">
+        <v>-0.494533186</v>
+      </c>
+      <c r="P49">
+        <v>-0.918418774</v>
+      </c>
+      <c r="Q49">
+        <v>0.161581226</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1549770762334247</v>
+      </c>
+      <c r="T49">
+        <v>2.628931257234315</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.6655687349528279</v>
+      </c>
+      <c r="W49">
+        <v>0.3059649766108345</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-1.901624957008079</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.2276853894108073</v>
+      </c>
+      <c r="C50">
+        <v>-0.2583147491935649</v>
+      </c>
+      <c r="D50">
+        <v>1.128885250806435</v>
+      </c>
+      <c r="E50">
+        <v>0.9271999999999998</v>
+      </c>
+      <c r="F50">
+        <v>2.7072</v>
+      </c>
+      <c r="G50">
+        <v>1.32</v>
+      </c>
+      <c r="H50">
+        <v>3.86</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.154</v>
+      </c>
+      <c r="K50">
+        <v>1.08</v>
+      </c>
+      <c r="L50">
+        <v>-0.926</v>
+      </c>
+      <c r="M50">
+        <v>0.49731264</v>
+      </c>
+      <c r="N50">
+        <v>-1.42331264</v>
+      </c>
+      <c r="O50">
+        <v>-0.498159424</v>
+      </c>
+      <c r="P50">
+        <v>-0.925153216</v>
+      </c>
+      <c r="Q50">
+        <v>0.1548467840000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1577785584686829</v>
+      </c>
+      <c r="T50">
+        <v>2.679487627565744</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.6517027196413105</v>
+      </c>
+      <c r="W50">
+        <v>0.3034177895981088</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-1.862007770403745</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.2294293894108073</v>
+      </c>
+      <c r="C51">
+        <v>-0.3236584703508174</v>
+      </c>
+      <c r="D51">
+        <v>1.119941529649182</v>
+      </c>
+      <c r="E51">
+        <v>0.9835999999999998</v>
+      </c>
+      <c r="F51">
+        <v>2.7636</v>
+      </c>
+      <c r="G51">
+        <v>1.32</v>
+      </c>
+      <c r="H51">
+        <v>3.86</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.154</v>
+      </c>
+      <c r="K51">
+        <v>1.08</v>
+      </c>
+      <c r="L51">
+        <v>-0.926</v>
+      </c>
+      <c r="M51">
+        <v>0.50767332</v>
+      </c>
+      <c r="N51">
+        <v>-1.43367332</v>
+      </c>
+      <c r="O51">
+        <v>-0.501785662</v>
+      </c>
+      <c r="P51">
+        <v>-0.9318876580000001</v>
+      </c>
+      <c r="Q51">
+        <v>0.148112342</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1606899027523825</v>
+      </c>
+      <c r="T51">
+        <v>2.732026600655268</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.6384026641384266</v>
+      </c>
+      <c r="W51">
+        <v>0.300974569402229</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-1.824007611824076</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.2311733894108073</v>
+      </c>
+      <c r="C52">
+        <v>-0.3888615901521368</v>
+      </c>
+      <c r="D52">
+        <v>1.111138409847863</v>
+      </c>
+      <c r="E52">
+        <v>1.04</v>
+      </c>
+      <c r="F52">
+        <v>2.82</v>
+      </c>
+      <c r="G52">
+        <v>1.32</v>
+      </c>
+      <c r="H52">
+        <v>3.86</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.154</v>
+      </c>
+      <c r="K52">
+        <v>1.08</v>
+      </c>
+      <c r="L52">
+        <v>-0.926</v>
+      </c>
+      <c r="M52">
+        <v>0.518034</v>
+      </c>
+      <c r="N52">
+        <v>-1.444034</v>
+      </c>
+      <c r="O52">
+        <v>-0.5054119</v>
+      </c>
+      <c r="P52">
+        <v>-0.9386221</v>
+      </c>
+      <c r="Q52">
+        <v>0.1413779000000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1637177008074302</v>
+      </c>
+      <c r="T52">
+        <v>2.786667132668375</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.6256346108556581</v>
+      </c>
+      <c r="W52">
+        <v>0.2986290780141844</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-1.787527459587595</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.2329173894108073</v>
+      </c>
+      <c r="C53">
+        <v>-0.4539273982625009</v>
+      </c>
+      <c r="D53">
+        <v>1.102472601737499</v>
+      </c>
+      <c r="E53">
+        <v>1.0964</v>
+      </c>
+      <c r="F53">
+        <v>2.8764</v>
+      </c>
+      <c r="G53">
+        <v>1.32</v>
+      </c>
+      <c r="H53">
+        <v>3.86</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.154</v>
+      </c>
+      <c r="K53">
+        <v>1.08</v>
+      </c>
+      <c r="L53">
+        <v>-0.926</v>
+      </c>
+      <c r="M53">
+        <v>0.52839468</v>
+      </c>
+      <c r="N53">
+        <v>-1.45439468</v>
+      </c>
+      <c r="O53">
+        <v>-0.509038138</v>
+      </c>
+      <c r="P53">
+        <v>-0.9453565420000001</v>
+      </c>
+      <c r="Q53">
+        <v>0.134643458</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1668690824565614</v>
+      </c>
+      <c r="T53">
+        <v>2.843537890477933</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.6133672655447628</v>
+      </c>
+      <c r="W53">
+        <v>0.2963755666805729</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-1.752477901556465</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.2346613894108073</v>
+      </c>
+      <c r="C54">
+        <v>-0.5188590825162107</v>
+      </c>
+      <c r="D54">
+        <v>1.093940917483789</v>
+      </c>
+      <c r="E54">
+        <v>1.1528</v>
+      </c>
+      <c r="F54">
+        <v>2.9328</v>
+      </c>
+      <c r="G54">
+        <v>1.32</v>
+      </c>
+      <c r="H54">
+        <v>3.86</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.154</v>
+      </c>
+      <c r="K54">
+        <v>1.08</v>
+      </c>
+      <c r="L54">
+        <v>-0.926</v>
+      </c>
+      <c r="M54">
+        <v>0.53875536</v>
+      </c>
+      <c r="N54">
+        <v>-1.46475536</v>
+      </c>
+      <c r="O54">
+        <v>-0.512664376</v>
+      </c>
+      <c r="P54">
+        <v>-0.952090984</v>
+      </c>
+      <c r="Q54">
+        <v>0.127909016</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1701517716744065</v>
+      </c>
+      <c r="T54">
+        <v>2.902778263196224</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.6015717412073636</v>
+      </c>
+      <c r="W54">
+        <v>0.2942087288597927</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-1.71877640344961</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.2364053894108072</v>
+      </c>
+      <c r="C55">
+        <v>-0.5836597328268054</v>
+      </c>
+      <c r="D55">
+        <v>1.085540267173194</v>
+      </c>
+      <c r="E55">
+        <v>1.2092</v>
+      </c>
+      <c r="F55">
+        <v>2.9892</v>
+      </c>
+      <c r="G55">
+        <v>1.32</v>
+      </c>
+      <c r="H55">
+        <v>3.86</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.154</v>
+      </c>
+      <c r="K55">
+        <v>1.08</v>
+      </c>
+      <c r="L55">
+        <v>-0.926</v>
+      </c>
+      <c r="M55">
+        <v>0.54911604</v>
+      </c>
+      <c r="N55">
+        <v>-1.47511604</v>
+      </c>
+      <c r="O55">
+        <v>-0.516290614</v>
+      </c>
+      <c r="P55">
+        <v>-0.9588254260000001</v>
+      </c>
+      <c r="Q55">
+        <v>0.121174574</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1735741497951385</v>
+      </c>
+      <c r="T55">
+        <v>2.964539502838696</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.5902213309959038</v>
+      </c>
+      <c r="W55">
+        <v>0.2921236585039475</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-1.686346659988297</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.2381493894108073</v>
+      </c>
+      <c r="C56">
+        <v>-0.6483323449182081</v>
+      </c>
+      <c r="D56">
+        <v>1.077267655081792</v>
+      </c>
+      <c r="E56">
+        <v>1.2656</v>
+      </c>
+      <c r="F56">
+        <v>3.0456</v>
+      </c>
+      <c r="G56">
+        <v>1.32</v>
+      </c>
+      <c r="H56">
+        <v>3.86</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.154</v>
+      </c>
+      <c r="K56">
+        <v>1.08</v>
+      </c>
+      <c r="L56">
+        <v>-0.926</v>
+      </c>
+      <c r="M56">
+        <v>0.5594767199999999</v>
+      </c>
+      <c r="N56">
+        <v>-1.48547672</v>
+      </c>
+      <c r="O56">
+        <v>-0.5199168519999999</v>
+      </c>
+      <c r="P56">
+        <v>-0.9655598679999999</v>
+      </c>
+      <c r="Q56">
+        <v>0.1144401320000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.177145326964598</v>
+      </c>
+      <c r="T56">
+        <v>3.028986013769972</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.5792913063478317</v>
+      </c>
+      <c r="W56">
+        <v>0.2901158129760967</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-1.655118018136662</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.2398933894108073</v>
+      </c>
+      <c r="C57">
+        <v>-0.7128798238865484</v>
+      </c>
+      <c r="D57">
+        <v>1.069120176113451</v>
+      </c>
+      <c r="E57">
+        <v>1.322</v>
+      </c>
+      <c r="F57">
+        <v>3.102</v>
+      </c>
+      <c r="G57">
+        <v>1.32</v>
+      </c>
+      <c r="H57">
+        <v>3.86</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.154</v>
+      </c>
+      <c r="K57">
+        <v>1.08</v>
+      </c>
+      <c r="L57">
+        <v>-0.926</v>
+      </c>
+      <c r="M57">
+        <v>0.5698373999999999</v>
+      </c>
+      <c r="N57">
+        <v>-1.4958374</v>
+      </c>
+      <c r="O57">
+        <v>-0.52354309</v>
+      </c>
+      <c r="P57">
+        <v>-0.9722943100000001</v>
+      </c>
+      <c r="Q57">
+        <v>0.10770569</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1808752231193669</v>
+      </c>
+      <c r="T57">
+        <v>3.096296814075972</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.5687587371415075</v>
+      </c>
+      <c r="W57">
+        <v>0.2881809800128949</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-1.62502496326145</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.2416373894108073</v>
+      </c>
+      <c r="C58">
+        <v>-0.7773049876015672</v>
+      </c>
+      <c r="D58">
+        <v>1.061095012398433</v>
+      </c>
+      <c r="E58">
+        <v>1.3784</v>
+      </c>
+      <c r="F58">
+        <v>3.1584</v>
+      </c>
+      <c r="G58">
+        <v>1.32</v>
+      </c>
+      <c r="H58">
+        <v>3.86</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.154</v>
+      </c>
+      <c r="K58">
+        <v>1.08</v>
+      </c>
+      <c r="L58">
+        <v>-0.926</v>
+      </c>
+      <c r="M58">
+        <v>0.5801980800000001</v>
+      </c>
+      <c r="N58">
+        <v>-1.50619808</v>
+      </c>
+      <c r="O58">
+        <v>-0.527169328</v>
+      </c>
+      <c r="P58">
+        <v>-0.9790287520000001</v>
+      </c>
+      <c r="Q58">
+        <v>0.100971248</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1847746600084434</v>
+      </c>
+      <c r="T58">
+        <v>3.166667196214062</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.5586023311211232</v>
+      </c>
+      <c r="W58">
+        <v>0.2863152482269503</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-1.596006660346067</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.2433813894108073</v>
+      </c>
+      <c r="C59">
+        <v>-0.8416105699559822</v>
+      </c>
+      <c r="D59">
+        <v>1.053189430044018</v>
+      </c>
+      <c r="E59">
+        <v>1.4348</v>
+      </c>
+      <c r="F59">
+        <v>3.2148</v>
+      </c>
+      <c r="G59">
+        <v>1.32</v>
+      </c>
+      <c r="H59">
+        <v>3.86</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.154</v>
+      </c>
+      <c r="K59">
+        <v>1.08</v>
+      </c>
+      <c r="L59">
+        <v>-0.926</v>
+      </c>
+      <c r="M59">
+        <v>0.5905587600000001</v>
+      </c>
+      <c r="N59">
+        <v>-1.51655876</v>
+      </c>
+      <c r="O59">
+        <v>-0.530795566</v>
+      </c>
+      <c r="P59">
+        <v>-0.9857631940000001</v>
+      </c>
+      <c r="Q59">
+        <v>0.09423680599999995</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1888554660551514</v>
+      </c>
+      <c r="T59">
+        <v>3.240310619381831</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.5488022902242614</v>
+      </c>
+      <c r="W59">
+        <v>0.2845149807141968</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-1.56800654349789</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.2451253894108073</v>
+      </c>
+      <c r="C60">
+        <v>-0.9057992239706554</v>
+      </c>
+      <c r="D60">
+        <v>1.045400776029344</v>
+      </c>
+      <c r="E60">
+        <v>1.491199999999999</v>
+      </c>
+      <c r="F60">
+        <v>3.271199999999999</v>
+      </c>
+      <c r="G60">
+        <v>1.32</v>
+      </c>
+      <c r="H60">
+        <v>3.86</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.154</v>
+      </c>
+      <c r="K60">
+        <v>1.08</v>
+      </c>
+      <c r="L60">
+        <v>-0.926</v>
+      </c>
+      <c r="M60">
+        <v>0.6009194399999999</v>
+      </c>
+      <c r="N60">
+        <v>-1.52691944</v>
+      </c>
+      <c r="O60">
+        <v>-0.5344218039999999</v>
+      </c>
+      <c r="P60">
+        <v>-0.992497636</v>
+      </c>
+      <c r="Q60">
+        <v>0.08750236400000011</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1931305961993217</v>
+      </c>
+      <c r="T60">
+        <v>3.317460872224255</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.5393401817721192</v>
+      </c>
+      <c r="W60">
+        <v>0.2827767913915383</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-1.540971947920341</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.2468693894108073</v>
+      </c>
+      <c r="C61">
+        <v>-0.9698735247630133</v>
+      </c>
+      <c r="D61">
+        <v>1.037726475236986</v>
+      </c>
+      <c r="E61">
+        <v>1.547599999999999</v>
+      </c>
+      <c r="F61">
+        <v>3.327599999999999</v>
+      </c>
+      <c r="G61">
+        <v>1.32</v>
+      </c>
+      <c r="H61">
+        <v>3.86</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.154</v>
+      </c>
+      <c r="K61">
+        <v>1.08</v>
+      </c>
+      <c r="L61">
+        <v>-0.926</v>
+      </c>
+      <c r="M61">
+        <v>0.6112801199999999</v>
+      </c>
+      <c r="N61">
+        <v>-1.53728012</v>
+      </c>
+      <c r="O61">
+        <v>-0.5380480419999999</v>
+      </c>
+      <c r="P61">
+        <v>-0.999232078</v>
+      </c>
+      <c r="Q61">
+        <v>0.08076792200000005</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1976142692773539</v>
+      </c>
+      <c r="T61">
+        <v>3.398374552034602</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.5301988227590324</v>
+      </c>
+      <c r="W61">
+        <v>0.2810975237408342</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-1.514853779311521</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.2486133894108073</v>
+      </c>
+      <c r="C62">
+        <v>-1.033835972385643</v>
+      </c>
+      <c r="D62">
+        <v>1.030164027614356</v>
+      </c>
+      <c r="E62">
+        <v>1.604</v>
+      </c>
+      <c r="F62">
+        <v>3.384</v>
+      </c>
+      <c r="G62">
+        <v>1.32</v>
+      </c>
+      <c r="H62">
+        <v>3.86</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.154</v>
+      </c>
+      <c r="K62">
+        <v>1.08</v>
+      </c>
+      <c r="L62">
+        <v>-0.926</v>
+      </c>
+      <c r="M62">
+        <v>0.6216408</v>
+      </c>
+      <c r="N62">
+        <v>-1.5476408</v>
+      </c>
+      <c r="O62">
+        <v>-0.54167428</v>
+      </c>
+      <c r="P62">
+        <v>-1.00596652</v>
+      </c>
+      <c r="Q62">
+        <v>0.07403348000000021</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2023221260092877</v>
+      </c>
+      <c r="T62">
+        <v>3.483333915835467</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.5213621757130484</v>
+      </c>
+      <c r="W62">
+        <v>0.279474231678487</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-1.489606216322995</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2503573894108073</v>
+      </c>
+      <c r="C63">
+        <v>-1.097688994541698</v>
+      </c>
+      <c r="D63">
+        <v>1.022711005458302</v>
+      </c>
+      <c r="E63">
+        <v>1.6604</v>
+      </c>
+      <c r="F63">
+        <v>3.4404</v>
+      </c>
+      <c r="G63">
+        <v>1.32</v>
+      </c>
+      <c r="H63">
+        <v>3.86</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.154</v>
+      </c>
+      <c r="K63">
+        <v>1.08</v>
+      </c>
+      <c r="L63">
+        <v>-0.926</v>
+      </c>
+      <c r="M63">
+        <v>0.63200148</v>
+      </c>
+      <c r="N63">
+        <v>-1.55800148</v>
+      </c>
+      <c r="O63">
+        <v>-0.545300518</v>
+      </c>
+      <c r="P63">
+        <v>-1.012700962</v>
+      </c>
+      <c r="Q63">
+        <v>0.06729903799999981</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2072714112915772</v>
+      </c>
+      <c r="T63">
+        <v>3.572650170087659</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.5128152547997198</v>
+      </c>
+      <c r="W63">
+        <v>0.2779041623067085</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-1.465186442284914</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2521013894108073</v>
+      </c>
+      <c r="C64">
+        <v>-1.161434949183258</v>
+      </c>
+      <c r="D64">
+        <v>1.015365050816742</v>
+      </c>
+      <c r="E64">
+        <v>1.7168</v>
+      </c>
+      <c r="F64">
+        <v>3.4968</v>
+      </c>
+      <c r="G64">
+        <v>1.32</v>
+      </c>
+      <c r="H64">
+        <v>3.86</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.154</v>
+      </c>
+      <c r="K64">
+        <v>1.08</v>
+      </c>
+      <c r="L64">
+        <v>-0.926</v>
+      </c>
+      <c r="M64">
+        <v>0.64236216</v>
+      </c>
+      <c r="N64">
+        <v>-1.56836216</v>
+      </c>
+      <c r="O64">
+        <v>-0.548926756</v>
+      </c>
+      <c r="P64">
+        <v>-1.019435404</v>
+      </c>
+      <c r="Q64">
+        <v>0.06056459600000008</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2124811852729345</v>
+      </c>
+      <c r="T64">
+        <v>3.666667279826808</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.5045440410126275</v>
+      </c>
+      <c r="W64">
+        <v>0.2763847403340197</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-1.441554402893221</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2538453894108073</v>
+      </c>
+      <c r="C65">
+        <v>-1.225076126998512</v>
+      </c>
+      <c r="D65">
+        <v>1.008123873001488</v>
+      </c>
+      <c r="E65">
+        <v>1.7732</v>
+      </c>
+      <c r="F65">
+        <v>3.5532</v>
+      </c>
+      <c r="G65">
+        <v>1.32</v>
+      </c>
+      <c r="H65">
+        <v>3.86</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.154</v>
+      </c>
+      <c r="K65">
+        <v>1.08</v>
+      </c>
+      <c r="L65">
+        <v>-0.926</v>
+      </c>
+      <c r="M65">
+        <v>0.65272284</v>
+      </c>
+      <c r="N65">
+        <v>-1.57872284</v>
+      </c>
+      <c r="O65">
+        <v>-0.552552994</v>
+      </c>
+      <c r="P65">
+        <v>-1.026169846</v>
+      </c>
+      <c r="Q65">
+        <v>0.05383015399999991</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2179725686586894</v>
+      </c>
+      <c r="T65">
+        <v>3.765766395497803</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.4965354054409985</v>
+      </c>
+      <c r="W65">
+        <v>0.2749135539795114</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-1.418672586974282</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2555893894108073</v>
+      </c>
+      <c r="C66">
+        <v>-1.288614753793278</v>
+      </c>
+      <c r="D66">
+        <v>1.000985246206721</v>
+      </c>
+      <c r="E66">
+        <v>1.8296</v>
+      </c>
+      <c r="F66">
+        <v>3.6096</v>
+      </c>
+      <c r="G66">
+        <v>1.32</v>
+      </c>
+      <c r="H66">
+        <v>3.86</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.154</v>
+      </c>
+      <c r="K66">
+        <v>1.08</v>
+      </c>
+      <c r="L66">
+        <v>-0.926</v>
+      </c>
+      <c r="M66">
+        <v>0.66308352</v>
+      </c>
+      <c r="N66">
+        <v>-1.58908352</v>
+      </c>
+      <c r="O66">
+        <v>-0.556179232</v>
+      </c>
+      <c r="P66">
+        <v>-1.032904288</v>
+      </c>
+      <c r="Q66">
+        <v>0.04709571199999996</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2237690288992086</v>
+      </c>
+      <c r="T66">
+        <v>3.870371017594965</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.4887770397309829</v>
+      </c>
+      <c r="W66">
+        <v>0.2734883421985816</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-1.396505827802808</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2573333894108073</v>
+      </c>
+      <c r="C67">
+        <v>-1.352052992772036</v>
+      </c>
+      <c r="D67">
+        <v>0.993947007227964</v>
+      </c>
+      <c r="E67">
+        <v>1.886</v>
+      </c>
+      <c r="F67">
+        <v>3.666</v>
+      </c>
+      <c r="G67">
+        <v>1.32</v>
+      </c>
+      <c r="H67">
+        <v>3.86</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.154</v>
+      </c>
+      <c r="K67">
+        <v>1.08</v>
+      </c>
+      <c r="L67">
+        <v>-0.926</v>
+      </c>
+      <c r="M67">
+        <v>0.6734442</v>
+      </c>
+      <c r="N67">
+        <v>-1.5994442</v>
+      </c>
+      <c r="O67">
+        <v>-0.55980547</v>
+      </c>
+      <c r="P67">
+        <v>-1.03963873</v>
+      </c>
+      <c r="Q67">
+        <v>0.04036127</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.229896715439186</v>
+      </c>
+      <c r="T67">
+        <v>3.980953046669106</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.4812573929658909</v>
+      </c>
+      <c r="W67">
+        <v>0.2721069830878342</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-1.375021122759688</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2590773894108073</v>
+      </c>
+      <c r="C68">
+        <v>-1.415392946723411</v>
+      </c>
+      <c r="D68">
+        <v>0.9870070532765891</v>
+      </c>
+      <c r="E68">
+        <v>1.9424</v>
+      </c>
+      <c r="F68">
+        <v>3.7224</v>
+      </c>
+      <c r="G68">
+        <v>1.32</v>
+      </c>
+      <c r="H68">
+        <v>3.86</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.154</v>
+      </c>
+      <c r="K68">
+        <v>1.08</v>
+      </c>
+      <c r="L68">
+        <v>-0.926</v>
+      </c>
+      <c r="M68">
+        <v>0.6838048799999999</v>
+      </c>
+      <c r="N68">
+        <v>-1.60980488</v>
+      </c>
+      <c r="O68">
+        <v>-0.563431708</v>
+      </c>
+      <c r="P68">
+        <v>-1.046373172</v>
+      </c>
+      <c r="Q68">
+        <v>0.03362682800000005</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2363848541285738</v>
+      </c>
+      <c r="T68">
+        <v>4.098039900982903</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.4739656142845895</v>
+      </c>
+      <c r="W68">
+        <v>0.2707674833440791</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-1.354187469384541</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2608213894108073</v>
+      </c>
+      <c r="C69">
+        <v>-1.478636660114731</v>
+      </c>
+      <c r="D69">
+        <v>0.9801633398852686</v>
+      </c>
+      <c r="E69">
+        <v>1.9988</v>
+      </c>
+      <c r="F69">
+        <v>3.7788</v>
+      </c>
+      <c r="G69">
+        <v>1.32</v>
+      </c>
+      <c r="H69">
+        <v>3.86</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.154</v>
+      </c>
+      <c r="K69">
+        <v>1.08</v>
+      </c>
+      <c r="L69">
+        <v>-0.926</v>
+      </c>
+      <c r="M69">
+        <v>0.69416556</v>
+      </c>
+      <c r="N69">
+        <v>-1.62016556</v>
+      </c>
+      <c r="O69">
+        <v>-0.5670579459999999</v>
+      </c>
+      <c r="P69">
+        <v>-1.053107614</v>
+      </c>
+      <c r="Q69">
+        <v>0.0268923860000001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2432662133445912</v>
+      </c>
+      <c r="T69">
+        <v>4.222222928285416</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.4668915006385508</v>
+      </c>
+      <c r="W69">
+        <v>0.2694679686673018</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-1.333975716110146</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2625653894108073</v>
+      </c>
+      <c r="C70">
+        <v>-1.541786121100051</v>
+      </c>
+      <c r="D70">
+        <v>0.9734138788999496</v>
+      </c>
+      <c r="E70">
+        <v>2.0552</v>
+      </c>
+      <c r="F70">
+        <v>3.8352</v>
+      </c>
+      <c r="G70">
+        <v>1.32</v>
+      </c>
+      <c r="H70">
+        <v>3.86</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.154</v>
+      </c>
+      <c r="K70">
+        <v>1.08</v>
+      </c>
+      <c r="L70">
+        <v>-0.926</v>
+      </c>
+      <c r="M70">
+        <v>0.70452624</v>
+      </c>
+      <c r="N70">
+        <v>-1.63052624</v>
+      </c>
+      <c r="O70">
+        <v>-0.570684184</v>
+      </c>
+      <c r="P70">
+        <v>-1.059842056</v>
+      </c>
+      <c r="Q70">
+        <v>0.02015794400000015</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2505776575116097</v>
+      </c>
+      <c r="T70">
+        <v>4.354167394794335</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.4600254491585721</v>
+      </c>
+      <c r="W70">
+        <v>0.2682066750104297</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-1.314358426167349</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2643093894108073</v>
+      </c>
+      <c r="C71">
+        <v>-1.604843263445765</v>
+      </c>
+      <c r="D71">
+        <v>0.966756736554235</v>
+      </c>
+      <c r="E71">
+        <v>2.1116</v>
+      </c>
+      <c r="F71">
+        <v>3.8916</v>
+      </c>
+      <c r="G71">
+        <v>1.32</v>
+      </c>
+      <c r="H71">
+        <v>3.86</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.154</v>
+      </c>
+      <c r="K71">
+        <v>1.08</v>
+      </c>
+      <c r="L71">
+        <v>-0.926</v>
+      </c>
+      <c r="M71">
+        <v>0.71488692</v>
+      </c>
+      <c r="N71">
+        <v>-1.64088692</v>
+      </c>
+      <c r="O71">
+        <v>-0.5743104219999999</v>
+      </c>
+      <c r="P71">
+        <v>-1.066576498</v>
+      </c>
+      <c r="Q71">
+        <v>0.01342350199999998</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2583608077539197</v>
+      </c>
+      <c r="T71">
+        <v>4.494624407529638</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.4533584136635204</v>
+      </c>
+      <c r="W71">
+        <v>0.2669819405899887</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-1.295309753324344</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2660533894108073</v>
+      </c>
+      <c r="C72">
+        <v>-1.667809968377761</v>
+      </c>
+      <c r="D72">
+        <v>0.9601900316222391</v>
+      </c>
+      <c r="E72">
+        <v>2.168</v>
+      </c>
+      <c r="F72">
+        <v>3.948</v>
+      </c>
+      <c r="G72">
+        <v>1.32</v>
+      </c>
+      <c r="H72">
+        <v>3.86</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.154</v>
+      </c>
+      <c r="K72">
+        <v>1.08</v>
+      </c>
+      <c r="L72">
+        <v>-0.926</v>
+      </c>
+      <c r="M72">
+        <v>0.7252476</v>
+      </c>
+      <c r="N72">
+        <v>-1.6512476</v>
+      </c>
+      <c r="O72">
+        <v>-0.57793666</v>
+      </c>
+      <c r="P72">
+        <v>-1.07331094</v>
+      </c>
+      <c r="Q72">
+        <v>0.006689060000000024</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2666628346790503</v>
+      </c>
+      <c r="T72">
+        <v>4.644445221113958</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.4468818648968987</v>
+      </c>
+      <c r="W72">
+        <v>0.2657921985815603</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-1.276805328276853</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2677973894108073</v>
+      </c>
+      <c r="C73">
+        <v>-1.730688066353783</v>
+      </c>
+      <c r="D73">
+        <v>0.9537119336462169</v>
+      </c>
+      <c r="E73">
+        <v>2.224399999999999</v>
+      </c>
+      <c r="F73">
+        <v>4.0044</v>
+      </c>
+      <c r="G73">
+        <v>1.32</v>
+      </c>
+      <c r="H73">
+        <v>3.86</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.154</v>
+      </c>
+      <c r="K73">
+        <v>1.08</v>
+      </c>
+      <c r="L73">
+        <v>-0.926</v>
+      </c>
+      <c r="M73">
+        <v>0.7356082799999999</v>
+      </c>
+      <c r="N73">
+        <v>-1.66160828</v>
+      </c>
+      <c r="O73">
+        <v>-0.5815628979999999</v>
+      </c>
+      <c r="P73">
+        <v>-1.080045382</v>
+      </c>
+      <c r="Q73">
+        <v>-4.538199999970516e-05</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2755374151852244</v>
+      </c>
+      <c r="T73">
+        <v>4.804598504600644</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.4405877541237029</v>
+      </c>
+      <c r="W73">
+        <v>0.2646359704325242</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-1.258822154639151</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2695413894108073</v>
+      </c>
+      <c r="C74">
+        <v>-1.793479338764542</v>
+      </c>
+      <c r="D74">
+        <v>0.9473206612354573</v>
+      </c>
+      <c r="E74">
+        <v>2.280799999999999</v>
+      </c>
+      <c r="F74">
+        <v>4.0608</v>
+      </c>
+      <c r="G74">
+        <v>1.32</v>
+      </c>
+      <c r="H74">
+        <v>3.86</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.154</v>
+      </c>
+      <c r="K74">
+        <v>1.08</v>
+      </c>
+      <c r="L74">
+        <v>-0.926</v>
+      </c>
+      <c r="M74">
+        <v>0.7459689599999999</v>
+      </c>
+      <c r="N74">
+        <v>-1.67196896</v>
+      </c>
+      <c r="O74">
+        <v>-0.585189136</v>
+      </c>
+      <c r="P74">
+        <v>-1.086779824</v>
+      </c>
+      <c r="Q74">
+        <v>-0.006779824000000101</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2850458942989825</v>
+      </c>
+      <c r="T74">
+        <v>4.976191308336382</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.4344684797608738</v>
+      </c>
+      <c r="W74">
+        <v>0.2635118597320725</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-1.241338513602497</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2712853894108073</v>
+      </c>
+      <c r="C75">
+        <v>-1.856185519566877</v>
+      </c>
+      <c r="D75">
+        <v>0.9410144804331229</v>
+      </c>
+      <c r="E75">
+        <v>2.337199999999999</v>
+      </c>
+      <c r="F75">
+        <v>4.1172</v>
+      </c>
+      <c r="G75">
+        <v>1.32</v>
+      </c>
+      <c r="H75">
+        <v>3.86</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.154</v>
+      </c>
+      <c r="K75">
+        <v>1.08</v>
+      </c>
+      <c r="L75">
+        <v>-0.926</v>
+      </c>
+      <c r="M75">
+        <v>0.7563296399999999</v>
+      </c>
+      <c r="N75">
+        <v>-1.68232964</v>
+      </c>
+      <c r="O75">
+        <v>-0.5888153739999999</v>
+      </c>
+      <c r="P75">
+        <v>-1.093514266</v>
+      </c>
+      <c r="Q75">
+        <v>-0.01351426599999983</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2952587051989447</v>
+      </c>
+      <c r="T75">
+        <v>5.160494690126618</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.4285168567504508</v>
+      </c>
+      <c r="W75">
+        <v>0.2624185465850578</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-1.224333876429859</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2730293894108073</v>
+      </c>
+      <c r="C76">
+        <v>-1.918808296852115</v>
+      </c>
+      <c r="D76">
+        <v>0.9347917031478844</v>
+      </c>
+      <c r="E76">
+        <v>2.393599999999999</v>
+      </c>
+      <c r="F76">
+        <v>4.1736</v>
+      </c>
+      <c r="G76">
+        <v>1.32</v>
+      </c>
+      <c r="H76">
+        <v>3.86</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.154</v>
+      </c>
+      <c r="K76">
+        <v>1.08</v>
+      </c>
+      <c r="L76">
+        <v>-0.926</v>
+      </c>
+      <c r="M76">
+        <v>0.7666903199999999</v>
+      </c>
+      <c r="N76">
+        <v>-1.69269032</v>
+      </c>
+      <c r="O76">
+        <v>-0.592441612</v>
+      </c>
+      <c r="P76">
+        <v>-1.100248708</v>
+      </c>
+      <c r="Q76">
+        <v>-0.020248708</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3062571169373657</v>
+      </c>
+      <c r="T76">
+        <v>5.358975255131488</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.4227260884159852</v>
+      </c>
+      <c r="W76">
+        <v>0.2613547824420165</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-1.207788824045672</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2747733894108073</v>
+      </c>
+      <c r="C77">
+        <v>-1.981349314352619</v>
+      </c>
+      <c r="D77">
+        <v>0.9286506856473802</v>
+      </c>
+      <c r="E77">
+        <v>2.449999999999999</v>
+      </c>
+      <c r="F77">
+        <v>4.23</v>
+      </c>
+      <c r="G77">
+        <v>1.32</v>
+      </c>
+      <c r="H77">
+        <v>3.86</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.154</v>
+      </c>
+      <c r="K77">
+        <v>1.08</v>
+      </c>
+      <c r="L77">
+        <v>-0.926</v>
+      </c>
+      <c r="M77">
+        <v>0.7770509999999999</v>
+      </c>
+      <c r="N77">
+        <v>-1.703051</v>
+      </c>
+      <c r="O77">
+        <v>-0.59606785</v>
+      </c>
+      <c r="P77">
+        <v>-1.10698315</v>
+      </c>
+      <c r="Q77">
+        <v>-0.02698314999999996</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3181354016148604</v>
+      </c>
+      <c r="T77">
+        <v>5.573334265336749</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.4170897405704387</v>
+      </c>
+      <c r="W77">
+        <v>0.2603193853427896</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-1.191684973058396</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2765173894108073</v>
+      </c>
+      <c r="C78">
+        <v>-2.043810172889334</v>
+      </c>
+      <c r="D78">
+        <v>0.9225898271106656</v>
+      </c>
+      <c r="E78">
+        <v>2.506399999999999</v>
+      </c>
+      <c r="F78">
+        <v>4.2864</v>
+      </c>
+      <c r="G78">
+        <v>1.32</v>
+      </c>
+      <c r="H78">
+        <v>3.86</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.154</v>
+      </c>
+      <c r="K78">
+        <v>1.08</v>
+      </c>
+      <c r="L78">
+        <v>-0.926</v>
+      </c>
+      <c r="M78">
+        <v>0.7874116799999999</v>
+      </c>
+      <c r="N78">
+        <v>-1.71341168</v>
+      </c>
+      <c r="O78">
+        <v>-0.599694088</v>
+      </c>
+      <c r="P78">
+        <v>-1.113717592</v>
+      </c>
+      <c r="Q78">
+        <v>-0.03371759199999991</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3310035433488129</v>
+      </c>
+      <c r="T78">
+        <v>5.805556526392446</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.4116017176681961</v>
+      </c>
+      <c r="W78">
+        <v>0.2593112355356476</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-1.176004907623418</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2782613894108074</v>
+      </c>
+      <c r="C79">
+        <v>-2.106192431763017</v>
+      </c>
+      <c r="D79">
+        <v>0.916607568236982</v>
+      </c>
+      <c r="E79">
+        <v>2.562799999999999</v>
+      </c>
+      <c r="F79">
+        <v>4.3428</v>
+      </c>
+      <c r="G79">
+        <v>1.32</v>
+      </c>
+      <c r="H79">
+        <v>3.86</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.154</v>
+      </c>
+      <c r="K79">
+        <v>1.08</v>
+      </c>
+      <c r="L79">
+        <v>-0.926</v>
+      </c>
+      <c r="M79">
+        <v>0.79777236</v>
+      </c>
+      <c r="N79">
+        <v>-1.72377236</v>
+      </c>
+      <c r="O79">
+        <v>-0.603320326</v>
+      </c>
+      <c r="P79">
+        <v>-1.120452034</v>
+      </c>
+      <c r="Q79">
+        <v>-0.04045203399999986</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3449906539291961</v>
+      </c>
+      <c r="T79">
+        <v>6.057972027539945</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.4062562408153624</v>
+      </c>
+      <c r="W79">
+        <v>0.2583292714377821</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-1.160732116615321</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2800053894108073</v>
+      </c>
+      <c r="C80">
+        <v>-2.168497610091696</v>
+      </c>
+      <c r="D80">
+        <v>0.9107023899083033</v>
+      </c>
+      <c r="E80">
+        <v>2.619199999999999</v>
+      </c>
+      <c r="F80">
+        <v>4.3992</v>
+      </c>
+      <c r="G80">
+        <v>1.32</v>
+      </c>
+      <c r="H80">
+        <v>3.86</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.154</v>
+      </c>
+      <c r="K80">
+        <v>1.08</v>
+      </c>
+      <c r="L80">
+        <v>-0.926</v>
+      </c>
+      <c r="M80">
+        <v>0.80813304</v>
+      </c>
+      <c r="N80">
+        <v>-1.73413304</v>
+      </c>
+      <c r="O80">
+        <v>-0.606946564</v>
+      </c>
+      <c r="P80">
+        <v>-1.127186476</v>
+      </c>
+      <c r="Q80">
+        <v>-0.04718647600000003</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3602493200168868</v>
+      </c>
+      <c r="T80">
+        <v>6.333334392428124</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.4010478274715757</v>
+      </c>
+      <c r="W80">
+        <v>0.2573724859065284</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-1.145850935633074</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2817493894108073</v>
+      </c>
+      <c r="C81">
+        <v>-2.230727188096751</v>
+      </c>
+      <c r="D81">
+        <v>0.9048728119032479</v>
+      </c>
+      <c r="E81">
+        <v>2.675599999999999</v>
+      </c>
+      <c r="F81">
+        <v>4.4556</v>
+      </c>
+      <c r="G81">
+        <v>1.32</v>
+      </c>
+      <c r="H81">
+        <v>3.86</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.154</v>
+      </c>
+      <c r="K81">
+        <v>1.08</v>
+      </c>
+      <c r="L81">
+        <v>-0.926</v>
+      </c>
+      <c r="M81">
+        <v>0.81849372</v>
+      </c>
+      <c r="N81">
+        <v>-1.74449372</v>
+      </c>
+      <c r="O81">
+        <v>-0.610572802</v>
+      </c>
+      <c r="P81">
+        <v>-1.133920918</v>
+      </c>
+      <c r="Q81">
+        <v>-0.05392091799999976</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3769611923986434</v>
+      </c>
+      <c r="T81">
+        <v>6.634921744448512</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.3959712726934545</v>
+      </c>
+      <c r="W81">
+        <v>0.2564399227937876</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-1.13134649340987</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2834933894108073</v>
+      </c>
+      <c r="C82">
+        <v>-2.292882608339925</v>
+      </c>
+      <c r="D82">
+        <v>0.8991173916600744</v>
+      </c>
+      <c r="E82">
+        <v>2.731999999999999</v>
+      </c>
+      <c r="F82">
+        <v>4.512</v>
+      </c>
+      <c r="G82">
+        <v>1.32</v>
+      </c>
+      <c r="H82">
+        <v>3.86</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.154</v>
+      </c>
+      <c r="K82">
+        <v>1.08</v>
+      </c>
+      <c r="L82">
+        <v>-0.926</v>
+      </c>
+      <c r="M82">
+        <v>0.8288543999999999</v>
+      </c>
+      <c r="N82">
+        <v>-1.7548544</v>
+      </c>
+      <c r="O82">
+        <v>-0.6141990399999999</v>
+      </c>
+      <c r="P82">
+        <v>-1.14065536</v>
+      </c>
+      <c r="Q82">
+        <v>-0.06065535999999994</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3953442520185755</v>
+      </c>
+      <c r="T82">
+        <v>6.966667831670937</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.3910216317847864</v>
+      </c>
+      <c r="W82">
+        <v>0.2555306737588652</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-1.117204662242247</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2852373894108072</v>
+      </c>
+      <c r="C83">
+        <v>-2.354965276913414</v>
+      </c>
+      <c r="D83">
+        <v>0.8934347230865867</v>
+      </c>
+      <c r="E83">
+        <v>2.7884</v>
+      </c>
+      <c r="F83">
+        <v>4.5684</v>
+      </c>
+      <c r="G83">
+        <v>1.32</v>
+      </c>
+      <c r="H83">
+        <v>3.86</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.154</v>
+      </c>
+      <c r="K83">
+        <v>1.08</v>
+      </c>
+      <c r="L83">
+        <v>-0.926</v>
+      </c>
+      <c r="M83">
+        <v>0.8392150800000001</v>
+      </c>
+      <c r="N83">
+        <v>-1.76521508</v>
+      </c>
+      <c r="O83">
+        <v>-0.617825278</v>
+      </c>
+      <c r="P83">
+        <v>-1.147389802</v>
+      </c>
+      <c r="Q83">
+        <v>-0.06738980200000011</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.415662370545869</v>
+      </c>
+      <c r="T83">
+        <v>7.333334559653617</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.3861942042318877</v>
+      </c>
+      <c r="W83">
+        <v>0.2546438753173977</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-1.103412012091108</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2869813894108073</v>
+      </c>
+      <c r="C84">
+        <v>-2.41697656458512</v>
+      </c>
+      <c r="D84">
+        <v>0.8878234354148803</v>
+      </c>
+      <c r="E84">
+        <v>2.8448</v>
+      </c>
+      <c r="F84">
+        <v>4.6248</v>
+      </c>
+      <c r="G84">
+        <v>1.32</v>
+      </c>
+      <c r="H84">
+        <v>3.86</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.154</v>
+      </c>
+      <c r="K84">
+        <v>1.08</v>
+      </c>
+      <c r="L84">
+        <v>-0.926</v>
+      </c>
+      <c r="M84">
+        <v>0.8495757600000001</v>
+      </c>
+      <c r="N84">
+        <v>-1.77557576</v>
+      </c>
+      <c r="O84">
+        <v>-0.621451516</v>
+      </c>
+      <c r="P84">
+        <v>-1.154124244</v>
+      </c>
+      <c r="Q84">
+        <v>-0.07412424400000006</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4382380577984173</v>
+      </c>
+      <c r="T84">
+        <v>7.74074203518993</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.3814845188144256</v>
+      </c>
+      <c r="W84">
+        <v>0.25377870610621</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-1.089955768041216</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2887253894108073</v>
+      </c>
+      <c r="C85">
+        <v>-2.478917807901013</v>
+      </c>
+      <c r="D85">
+        <v>0.8822821920989872</v>
+      </c>
+      <c r="E85">
+        <v>2.9012</v>
+      </c>
+      <c r="F85">
+        <v>4.6812</v>
+      </c>
+      <c r="G85">
+        <v>1.32</v>
+      </c>
+      <c r="H85">
+        <v>3.86</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.154</v>
+      </c>
+      <c r="K85">
+        <v>1.08</v>
+      </c>
+      <c r="L85">
+        <v>-0.926</v>
+      </c>
+      <c r="M85">
+        <v>0.8599364400000001</v>
+      </c>
+      <c r="N85">
+        <v>-1.78593644</v>
+      </c>
+      <c r="O85">
+        <v>-0.625077754</v>
+      </c>
+      <c r="P85">
+        <v>-1.160858686</v>
+      </c>
+      <c r="Q85">
+        <v>-0.08085868600000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4634697082571477</v>
+      </c>
+      <c r="T85">
+        <v>8.196079801965809</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.3768883197925651</v>
+      </c>
+      <c r="W85">
+        <v>0.2529343843458942</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-1.0768237708359</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2904693894108072</v>
+      </c>
+      <c r="C86">
+        <v>-2.540790310246467</v>
+      </c>
+      <c r="D86">
+        <v>0.8768096897535328</v>
+      </c>
+      <c r="E86">
+        <v>2.957599999999999</v>
+      </c>
+      <c r="F86">
+        <v>4.7376</v>
+      </c>
+      <c r="G86">
+        <v>1.32</v>
+      </c>
+      <c r="H86">
+        <v>3.86</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.154</v>
+      </c>
+      <c r="K86">
+        <v>1.08</v>
+      </c>
+      <c r="L86">
+        <v>-0.926</v>
+      </c>
+      <c r="M86">
+        <v>0.8702971199999999</v>
+      </c>
+      <c r="N86">
+        <v>-1.79629712</v>
+      </c>
+      <c r="O86">
+        <v>-0.6287039919999999</v>
+      </c>
+      <c r="P86">
+        <v>-1.167593128</v>
+      </c>
+      <c r="Q86">
+        <v>-0.08759312799999996</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4918553150232193</v>
+      </c>
+      <c r="T86">
+        <v>8.708334789588669</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.3724015540807489</v>
+      </c>
+      <c r="W86">
+        <v>0.2521101654846336</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-1.064004440230711</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2922133894108073</v>
+      </c>
+      <c r="C87">
+        <v>-2.60259534286834</v>
+      </c>
+      <c r="D87">
+        <v>0.8714046571316594</v>
+      </c>
+      <c r="E87">
+        <v>3.013999999999999</v>
+      </c>
+      <c r="F87">
+        <v>4.794</v>
+      </c>
+      <c r="G87">
+        <v>1.32</v>
+      </c>
+      <c r="H87">
+        <v>3.86</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.154</v>
+      </c>
+      <c r="K87">
+        <v>1.08</v>
+      </c>
+      <c r="L87">
+        <v>-0.926</v>
+      </c>
+      <c r="M87">
+        <v>0.8806577999999999</v>
+      </c>
+      <c r="N87">
+        <v>-1.8066578</v>
+      </c>
+      <c r="O87">
+        <v>-0.63233023</v>
+      </c>
+      <c r="P87">
+        <v>-1.17432757</v>
+      </c>
+      <c r="Q87">
+        <v>-0.09432756999999992</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5240256693581005</v>
+      </c>
+      <c r="T87">
+        <v>9.288890442227911</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.3680203593268577</v>
+      </c>
+      <c r="W87">
+        <v>0.2513053400083438</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-1.051486740933879</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2939573894108073</v>
+      </c>
+      <c r="C88">
+        <v>-2.664334145859484</v>
+      </c>
+      <c r="D88">
+        <v>0.8660658541405153</v>
+      </c>
+      <c r="E88">
+        <v>3.070399999999999</v>
+      </c>
+      <c r="F88">
+        <v>4.8504</v>
+      </c>
+      <c r="G88">
+        <v>1.32</v>
+      </c>
+      <c r="H88">
+        <v>3.86</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.154</v>
+      </c>
+      <c r="K88">
+        <v>1.08</v>
+      </c>
+      <c r="L88">
+        <v>-0.926</v>
+      </c>
+      <c r="M88">
+        <v>0.8910184799999999</v>
+      </c>
+      <c r="N88">
+        <v>-1.81701848</v>
+      </c>
+      <c r="O88">
+        <v>-0.6359564679999999</v>
+      </c>
+      <c r="P88">
+        <v>-1.181062012</v>
+      </c>
+      <c r="Q88">
+        <v>-0.1010620119999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.560791788597965</v>
+      </c>
+      <c r="T88">
+        <v>9.952382616672764</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.363741052823057</v>
+      </c>
+      <c r="W88">
+        <v>0.2505192314035956</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-1.03926015092302</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2957013894108073</v>
+      </c>
+      <c r="C89">
+        <v>-2.726007929107283</v>
+      </c>
+      <c r="D89">
+        <v>0.8607920708927165</v>
+      </c>
+      <c r="E89">
+        <v>3.126799999999999</v>
+      </c>
+      <c r="F89">
+        <v>4.9068</v>
+      </c>
+      <c r="G89">
+        <v>1.32</v>
+      </c>
+      <c r="H89">
+        <v>3.86</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.154</v>
+      </c>
+      <c r="K89">
+        <v>1.08</v>
+      </c>
+      <c r="L89">
+        <v>-0.926</v>
+      </c>
+      <c r="M89">
+        <v>0.90137916</v>
+      </c>
+      <c r="N89">
+        <v>-1.82737916</v>
+      </c>
+      <c r="O89">
+        <v>-0.639582706</v>
+      </c>
+      <c r="P89">
+        <v>-1.187796454</v>
+      </c>
+      <c r="Q89">
+        <v>-0.1077964539999998</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6032142338747315</v>
+      </c>
+      <c r="T89">
+        <v>10.71795051026298</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.3595601211814127</v>
+      </c>
+      <c r="W89">
+        <v>0.2497511942610255</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-1.027314631946894</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2974453894108073</v>
+      </c>
+      <c r="C90">
+        <v>-2.787617873207748</v>
+      </c>
+      <c r="D90">
+        <v>0.8555821267922519</v>
+      </c>
+      <c r="E90">
+        <v>3.183199999999999</v>
+      </c>
+      <c r="F90">
+        <v>4.9632</v>
+      </c>
+      <c r="G90">
+        <v>1.32</v>
+      </c>
+      <c r="H90">
+        <v>3.86</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.154</v>
+      </c>
+      <c r="K90">
+        <v>1.08</v>
+      </c>
+      <c r="L90">
+        <v>-0.926</v>
+      </c>
+      <c r="M90">
+        <v>0.91173984</v>
+      </c>
+      <c r="N90">
+        <v>-1.83773984</v>
+      </c>
+      <c r="O90">
+        <v>-0.6432089439999999</v>
+      </c>
+      <c r="P90">
+        <v>-1.194530896</v>
+      </c>
+      <c r="Q90">
+        <v>-0.114530896</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.6527070866976259</v>
+      </c>
+      <c r="T90">
+        <v>11.61111305278489</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.3554742107134421</v>
+      </c>
+      <c r="W90">
+        <v>0.2490006125080593</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-1.015640602038406</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2991893894108073</v>
+      </c>
+      <c r="C91">
+        <v>-2.849165130346611</v>
+      </c>
+      <c r="D91">
+        <v>0.850434869653388</v>
+      </c>
+      <c r="E91">
+        <v>3.239599999999999</v>
+      </c>
+      <c r="F91">
+        <v>5.0196</v>
+      </c>
+      <c r="G91">
+        <v>1.32</v>
+      </c>
+      <c r="H91">
+        <v>3.86</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.154</v>
+      </c>
+      <c r="K91">
+        <v>1.08</v>
+      </c>
+      <c r="L91">
+        <v>-0.926</v>
+      </c>
+      <c r="M91">
+        <v>0.92210052</v>
+      </c>
+      <c r="N91">
+        <v>-1.84810052</v>
+      </c>
+      <c r="O91">
+        <v>-0.646835182</v>
+      </c>
+      <c r="P91">
+        <v>-1.201265338</v>
+      </c>
+      <c r="Q91">
+        <v>-0.1212653379999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.7111986400337736</v>
+      </c>
+      <c r="T91">
+        <v>12.66666878485625</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.3514801184582349</v>
+      </c>
+      <c r="W91">
+        <v>0.2482668977607777</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-1.004228909880671</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.3009333894108073</v>
+      </c>
+      <c r="C92">
+        <v>-2.910650825148815</v>
+      </c>
+      <c r="D92">
+        <v>0.8453491748511843</v>
+      </c>
+      <c r="E92">
+        <v>3.295999999999999</v>
+      </c>
+      <c r="F92">
+        <v>5.076</v>
+      </c>
+      <c r="G92">
+        <v>1.32</v>
+      </c>
+      <c r="H92">
+        <v>3.86</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.154</v>
+      </c>
+      <c r="K92">
+        <v>1.08</v>
+      </c>
+      <c r="L92">
+        <v>-0.926</v>
+      </c>
+      <c r="M92">
+        <v>0.9324612</v>
+      </c>
+      <c r="N92">
+        <v>-1.8584612</v>
+      </c>
+      <c r="O92">
+        <v>-0.65046142</v>
+      </c>
+      <c r="P92">
+        <v>-1.20799978</v>
+      </c>
+      <c r="Q92">
+        <v>-0.1279997800000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.7813885040371512</v>
+      </c>
+      <c r="T92">
+        <v>13.93333566334188</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.347574783808699</v>
+      </c>
+      <c r="W92">
+        <v>0.247549487785658</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.993070810881997</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.3026773894108073</v>
+      </c>
+      <c r="C93">
+        <v>-2.972076055497689</v>
+      </c>
+      <c r="D93">
+        <v>0.840323944502311</v>
+      </c>
+      <c r="E93">
+        <v>3.352399999999999</v>
+      </c>
+      <c r="F93">
+        <v>5.1324</v>
+      </c>
+      <c r="G93">
+        <v>1.32</v>
+      </c>
+      <c r="H93">
+        <v>3.86</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.154</v>
+      </c>
+      <c r="K93">
+        <v>1.08</v>
+      </c>
+      <c r="L93">
+        <v>-0.926</v>
+      </c>
+      <c r="M93">
+        <v>0.9428218799999999</v>
+      </c>
+      <c r="N93">
+        <v>-1.86882188</v>
+      </c>
+      <c r="O93">
+        <v>-0.654087658</v>
+      </c>
+      <c r="P93">
+        <v>-1.214734222</v>
+      </c>
+      <c r="Q93">
+        <v>-0.1347342220000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.8671761155968346</v>
+      </c>
+      <c r="T93">
+        <v>15.48148407037986</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.3437552806899221</v>
+      </c>
+      <c r="W93">
+        <v>0.2468478450627387</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.9821579448283491</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.3044213894108073</v>
+      </c>
+      <c r="C94">
+        <v>-3.033441893325092</v>
+      </c>
+      <c r="D94">
+        <v>0.8353581066749077</v>
+      </c>
+      <c r="E94">
+        <v>3.408799999999999</v>
+      </c>
+      <c r="F94">
+        <v>5.1888</v>
+      </c>
+      <c r="G94">
+        <v>1.32</v>
+      </c>
+      <c r="H94">
+        <v>3.86</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.154</v>
+      </c>
+      <c r="K94">
+        <v>1.08</v>
+      </c>
+      <c r="L94">
+        <v>-0.926</v>
+      </c>
+      <c r="M94">
+        <v>0.9531825599999999</v>
+      </c>
+      <c r="N94">
+        <v>-1.87918256</v>
+      </c>
+      <c r="O94">
+        <v>-0.6577138959999999</v>
+      </c>
+      <c r="P94">
+        <v>-1.221468664</v>
+      </c>
+      <c r="Q94">
+        <v>-0.141468664</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.9744106300464392</v>
+      </c>
+      <c r="T94">
+        <v>17.41666957917735</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.3400188102476403</v>
+      </c>
+      <c r="W94">
+        <v>0.2461614554424915</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.9714823149932579</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.3061653894108073</v>
+      </c>
+      <c r="C95">
+        <v>-3.094749385373702</v>
+      </c>
+      <c r="D95">
+        <v>0.8304506146262974</v>
+      </c>
+      <c r="E95">
+        <v>3.465199999999999</v>
+      </c>
+      <c r="F95">
+        <v>5.2452</v>
+      </c>
+      <c r="G95">
+        <v>1.32</v>
+      </c>
+      <c r="H95">
+        <v>3.86</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.154</v>
+      </c>
+      <c r="K95">
+        <v>1.08</v>
+      </c>
+      <c r="L95">
+        <v>-0.926</v>
+      </c>
+      <c r="M95">
+        <v>0.9635432399999999</v>
+      </c>
+      <c r="N95">
+        <v>-1.88954324</v>
+      </c>
+      <c r="O95">
+        <v>-0.661340134</v>
+      </c>
+      <c r="P95">
+        <v>-1.228203106</v>
+      </c>
+      <c r="Q95">
+        <v>-0.148203106</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.112283577195931</v>
+      </c>
+      <c r="T95">
+        <v>19.90476523334555</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.3363626940084183</v>
+      </c>
+      <c r="W95">
+        <v>0.2454898268893465</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.9610362685954812</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.3079093894108073</v>
+      </c>
+      <c r="C96">
+        <v>-3.155999553932587</v>
+      </c>
+      <c r="D96">
+        <v>0.8256004460674123</v>
+      </c>
+      <c r="E96">
+        <v>3.521599999999999</v>
+      </c>
+      <c r="F96">
+        <v>5.3016</v>
+      </c>
+      <c r="G96">
+        <v>1.32</v>
+      </c>
+      <c r="H96">
+        <v>3.86</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.154</v>
+      </c>
+      <c r="K96">
+        <v>1.08</v>
+      </c>
+      <c r="L96">
+        <v>-0.926</v>
+      </c>
+      <c r="M96">
+        <v>0.9739039199999999</v>
+      </c>
+      <c r="N96">
+        <v>-1.89990392</v>
+      </c>
+      <c r="O96">
+        <v>-0.6649663719999999</v>
+      </c>
+      <c r="P96">
+        <v>-1.234937548</v>
+      </c>
+      <c r="Q96">
+        <v>-0.1549375479999999</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.296114173395253</v>
+      </c>
+      <c r="T96">
+        <v>23.22222610556981</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.3327843674764139</v>
+      </c>
+      <c r="W96">
+        <v>0.2448324883054172</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.9508124785040397</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.3096533894108074</v>
+      </c>
+      <c r="C97">
+        <v>-3.217193397547158</v>
+      </c>
+      <c r="D97">
+        <v>0.8208066024528419</v>
+      </c>
+      <c r="E97">
+        <v>3.577999999999999</v>
+      </c>
+      <c r="F97">
+        <v>5.358</v>
+      </c>
+      <c r="G97">
+        <v>1.32</v>
+      </c>
+      <c r="H97">
+        <v>3.86</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.154</v>
+      </c>
+      <c r="K97">
+        <v>1.08</v>
+      </c>
+      <c r="L97">
+        <v>-0.926</v>
+      </c>
+      <c r="M97">
+        <v>0.9842645999999999</v>
+      </c>
+      <c r="N97">
+        <v>-1.9102646</v>
+      </c>
+      <c r="O97">
+        <v>-0.66859261</v>
+      </c>
+      <c r="P97">
+        <v>-1.24167199</v>
+      </c>
+      <c r="Q97">
+        <v>-0.1616719899999999</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.553477008074304</v>
+      </c>
+      <c r="T97">
+        <v>27.86667132668378</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.3292813741345569</v>
+      </c>
+      <c r="W97">
+        <v>0.2441889884285181</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.9408039260987342</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.3113973894108073</v>
+      </c>
+      <c r="C98">
+        <v>-3.278331891704521</v>
+      </c>
+      <c r="D98">
+        <v>0.8160681082954788</v>
+      </c>
+      <c r="E98">
+        <v>3.634399999999999</v>
+      </c>
+      <c r="F98">
+        <v>5.4144</v>
+      </c>
+      <c r="G98">
+        <v>1.32</v>
+      </c>
+      <c r="H98">
+        <v>3.86</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.154</v>
+      </c>
+      <c r="K98">
+        <v>1.08</v>
+      </c>
+      <c r="L98">
+        <v>-0.926</v>
+      </c>
+      <c r="M98">
+        <v>0.9946252799999999</v>
+      </c>
+      <c r="N98">
+        <v>-1.92062528</v>
+      </c>
+      <c r="O98">
+        <v>-0.6722188479999999</v>
+      </c>
+      <c r="P98">
+        <v>-1.248406432</v>
+      </c>
+      <c r="Q98">
+        <v>-0.1684064319999998</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.939521260092876</v>
+      </c>
+      <c r="T98">
+        <v>34.83333915835465</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.3258513598206553</v>
+      </c>
+      <c r="W98">
+        <v>0.2435588947990543</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.9310038852018723</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.3131413894108073</v>
+      </c>
+      <c r="C99">
+        <v>-3.339415989495237</v>
+      </c>
+      <c r="D99">
+        <v>0.8113840105047628</v>
+      </c>
+      <c r="E99">
+        <v>3.690799999999999</v>
+      </c>
+      <c r="F99">
+        <v>5.4708</v>
+      </c>
+      <c r="G99">
+        <v>1.32</v>
+      </c>
+      <c r="H99">
+        <v>3.86</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.154</v>
+      </c>
+      <c r="K99">
+        <v>1.08</v>
+      </c>
+      <c r="L99">
+        <v>-0.926</v>
+      </c>
+      <c r="M99">
+        <v>1.00498596</v>
+      </c>
+      <c r="N99">
+        <v>-1.93098596</v>
+      </c>
+      <c r="O99">
+        <v>-0.675845086</v>
+      </c>
+      <c r="P99">
+        <v>-1.255140874</v>
+      </c>
+      <c r="Q99">
+        <v>-0.175140874</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.582928346790502</v>
+      </c>
+      <c r="T99">
+        <v>46.44445221113954</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.3224920674513702</v>
+      </c>
+      <c r="W99">
+        <v>0.2429417927908167</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.9214059070039149</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.3148853894108073</v>
+      </c>
+      <c r="C100">
+        <v>-3.400446622252414</v>
+      </c>
+      <c r="D100">
+        <v>0.8067533777475862</v>
+      </c>
+      <c r="E100">
+        <v>3.747199999999999</v>
+      </c>
+      <c r="F100">
+        <v>5.5272</v>
+      </c>
+      <c r="G100">
+        <v>1.32</v>
+      </c>
+      <c r="H100">
+        <v>3.86</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.154</v>
+      </c>
+      <c r="K100">
+        <v>1.08</v>
+      </c>
+      <c r="L100">
+        <v>-0.926</v>
+      </c>
+      <c r="M100">
+        <v>1.01534664</v>
+      </c>
+      <c r="N100">
+        <v>-1.94134664</v>
+      </c>
+      <c r="O100">
+        <v>-0.6794713239999999</v>
+      </c>
+      <c r="P100">
+        <v>-1.261875316</v>
+      </c>
+      <c r="Q100">
+        <v>-0.181875316</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.869742520185751</v>
+      </c>
+      <c r="T100">
+        <v>69.66667831670929</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.3192013320692133</v>
+      </c>
+      <c r="W100">
+        <v>0.2423372847011145</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.9120038059120381</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.3166293894108073</v>
+      </c>
+      <c r="C101">
+        <v>-3.46142470016904</v>
+      </c>
+      <c r="D101">
+        <v>0.8021752998309598</v>
+      </c>
+      <c r="E101">
+        <v>3.803599999999999</v>
+      </c>
+      <c r="F101">
+        <v>5.5836</v>
+      </c>
+      <c r="G101">
+        <v>1.32</v>
+      </c>
+      <c r="H101">
+        <v>3.86</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.154</v>
+      </c>
+      <c r="K101">
+        <v>1.08</v>
+      </c>
+      <c r="L101">
+        <v>-0.926</v>
+      </c>
+      <c r="M101">
+        <v>1.02570732</v>
+      </c>
+      <c r="N101">
+        <v>-1.95170732</v>
+      </c>
+      <c r="O101">
+        <v>-0.683097562</v>
+      </c>
+      <c r="P101">
+        <v>-1.268609758</v>
+      </c>
+      <c r="Q101">
+        <v>-0.1886097580000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>7.730185040371502</v>
+      </c>
+      <c r="T101">
+        <v>139.3333566334186</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.3159770761897263</v>
+      </c>
+      <c r="W101">
+        <v>0.2417449888960527</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.902791646256361</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
